--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6277,28 +6277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>890.0700509145147</v>
+        <v>1035.702148069503</v>
       </c>
       <c r="AB2" t="n">
-        <v>1217.833110780552</v>
+        <v>1417.093370942691</v>
       </c>
       <c r="AC2" t="n">
-        <v>1101.604827927161</v>
+        <v>1281.847968522957</v>
       </c>
       <c r="AD2" t="n">
-        <v>890070.0509145147</v>
+        <v>1035702.148069503</v>
       </c>
       <c r="AE2" t="n">
-        <v>1217833.110780552</v>
+        <v>1417093.370942691</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.79466331538419e-07</v>
+        <v>1.31772650762394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.99826388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1101604.827927161</v>
+        <v>1281847.968522958</v>
       </c>
     </row>
     <row r="3">
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>641.2196833032007</v>
+        <v>745.2792740029884</v>
       </c>
       <c r="AB3" t="n">
-        <v>877.3450593113569</v>
+        <v>1019.723982091947</v>
       </c>
       <c r="AC3" t="n">
-        <v>793.6124782122048</v>
+        <v>922.4029564326881</v>
       </c>
       <c r="AD3" t="n">
-        <v>641219.6833032006</v>
+        <v>745279.2740029884</v>
       </c>
       <c r="AE3" t="n">
-        <v>877345.0593113569</v>
+        <v>1019723.982091947</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.004455131014338e-06</v>
+        <v>1.698081236227497e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.17361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>793612.4782122048</v>
+        <v>922402.9564326882</v>
       </c>
     </row>
     <row r="4">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.7283426334178</v>
+        <v>673.7878438246544</v>
       </c>
       <c r="AB4" t="n">
-        <v>779.527453031606</v>
+        <v>921.9062533426475</v>
       </c>
       <c r="AC4" t="n">
-        <v>705.1304469879205</v>
+        <v>833.9208144271777</v>
       </c>
       <c r="AD4" t="n">
-        <v>569728.3426334178</v>
+        <v>673787.8438246544</v>
       </c>
       <c r="AE4" t="n">
-        <v>779527.453031606</v>
+        <v>921906.2533426475</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.093876449698044e-06</v>
+        <v>1.849252412208431e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.52430555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>705130.4469879206</v>
+        <v>833920.8144271777</v>
       </c>
     </row>
     <row r="5">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>535.5400427949266</v>
+        <v>629.270400636154</v>
       </c>
       <c r="AB5" t="n">
-        <v>732.7495129112428</v>
+        <v>860.9955236011581</v>
       </c>
       <c r="AC5" t="n">
-        <v>662.8169278193934</v>
+        <v>778.8233192434698</v>
       </c>
       <c r="AD5" t="n">
-        <v>535540.0427949267</v>
+        <v>629270.400636154</v>
       </c>
       <c r="AE5" t="n">
-        <v>732749.5129112429</v>
+        <v>860995.5236011581</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.141586492869407e-06</v>
+        <v>1.929908607380717e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.75173611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>662816.9278193935</v>
+        <v>778823.3192434697</v>
       </c>
     </row>
     <row r="6">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>522.3873350843529</v>
+        <v>615.9471007249881</v>
       </c>
       <c r="AB6" t="n">
-        <v>714.7533979651241</v>
+        <v>842.7659968801923</v>
       </c>
       <c r="AC6" t="n">
-        <v>646.5383368260265</v>
+        <v>762.3335929674515</v>
       </c>
       <c r="AD6" t="n">
-        <v>522387.3350843529</v>
+        <v>615947.1007249882</v>
       </c>
       <c r="AE6" t="n">
-        <v>714753.3979651241</v>
+        <v>842765.9968801923</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.16868598412281e-06</v>
+        <v>1.975721641918401e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.33506944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>646538.3368260264</v>
+        <v>762333.5929674516</v>
       </c>
     </row>
     <row r="7">
@@ -6807,28 +6807,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>511.7377195722623</v>
+        <v>595.0536827174599</v>
       </c>
       <c r="AB7" t="n">
-        <v>700.1821241936041</v>
+        <v>814.1787006097437</v>
       </c>
       <c r="AC7" t="n">
-        <v>633.357724972349</v>
+        <v>736.4746281305322</v>
       </c>
       <c r="AD7" t="n">
-        <v>511737.7195722623</v>
+        <v>595053.6827174599</v>
       </c>
       <c r="AE7" t="n">
-        <v>700182.1241936041</v>
+        <v>814178.7006097437</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.191257222746444e-06</v>
+        <v>2.013879440710769e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.00520833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>633357.724972349</v>
+        <v>736474.6281305322</v>
       </c>
     </row>
     <row r="8">
@@ -6913,28 +6913,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>494.9346966709435</v>
+        <v>588.5797136575994</v>
       </c>
       <c r="AB8" t="n">
-        <v>677.1914869629675</v>
+        <v>805.3207305306851</v>
       </c>
       <c r="AC8" t="n">
-        <v>612.5612818914424</v>
+        <v>728.4620502835799</v>
       </c>
       <c r="AD8" t="n">
-        <v>494934.6966709435</v>
+        <v>588579.7136575994</v>
       </c>
       <c r="AE8" t="n">
-        <v>677191.4869629674</v>
+        <v>805320.730530685</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.204491858009733e-06</v>
+        <v>2.036253248275684e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.82291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>612561.2818914424</v>
+        <v>728462.0502835799</v>
       </c>
     </row>
     <row r="9">
@@ -7019,28 +7019,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>488.6418596384128</v>
+        <v>582.2868766250687</v>
       </c>
       <c r="AB9" t="n">
-        <v>668.5813497146826</v>
+        <v>796.7105932824002</v>
       </c>
       <c r="AC9" t="n">
-        <v>604.7728840577303</v>
+        <v>720.6736524498676</v>
       </c>
       <c r="AD9" t="n">
-        <v>488641.8596384128</v>
+        <v>582286.8766250686</v>
       </c>
       <c r="AE9" t="n">
-        <v>668581.3497146826</v>
+        <v>796710.5932824002</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.216209295226967e-06</v>
+        <v>2.056062157266138e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.65798611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>604772.8840577303</v>
+        <v>720673.6524498677</v>
       </c>
     </row>
     <row r="10">
@@ -7125,28 +7125,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>482.7209075274789</v>
+        <v>576.3659245141347</v>
       </c>
       <c r="AB10" t="n">
-        <v>660.4800418225311</v>
+        <v>788.6092853902487</v>
       </c>
       <c r="AC10" t="n">
-        <v>597.4447536205489</v>
+        <v>713.3455220126863</v>
       </c>
       <c r="AD10" t="n">
-        <v>482720.9075274789</v>
+        <v>576365.9245141346</v>
       </c>
       <c r="AE10" t="n">
-        <v>660480.0418225311</v>
+        <v>788609.2853902488</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.227576609818187e-06</v>
+        <v>2.075279166585562e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.50173611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>597444.7536205489</v>
+        <v>713345.5220126862</v>
       </c>
     </row>
     <row r="11">
@@ -7231,28 +7231,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>480.4883563602104</v>
+        <v>563.7189786508366</v>
       </c>
       <c r="AB11" t="n">
-        <v>657.4253668222683</v>
+        <v>771.3051761162104</v>
       </c>
       <c r="AC11" t="n">
-        <v>594.6816125150476</v>
+        <v>697.6928926412921</v>
       </c>
       <c r="AD11" t="n">
-        <v>480488.3563602105</v>
+        <v>563718.9786508365</v>
       </c>
       <c r="AE11" t="n">
-        <v>657425.3668222683</v>
+        <v>771305.1761162104</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.230821079485907e-06</v>
+        <v>2.080764103537103e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.45833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>594681.6125150477</v>
+        <v>697692.8926412922</v>
       </c>
     </row>
     <row r="12">
@@ -7337,28 +7337,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>475.7153492149465</v>
+        <v>558.9459715055724</v>
       </c>
       <c r="AB12" t="n">
-        <v>650.8947278759042</v>
+        <v>764.7745371698462</v>
       </c>
       <c r="AC12" t="n">
-        <v>588.7742485839153</v>
+        <v>691.7855287101597</v>
       </c>
       <c r="AD12" t="n">
-        <v>475715.3492149465</v>
+        <v>558945.9715055724</v>
       </c>
       <c r="AE12" t="n">
-        <v>650894.7278759042</v>
+        <v>764774.5371698462</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.239690852678235e-06</v>
+        <v>2.095758895203183e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.34548611111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>588774.2485839153</v>
+        <v>691785.5287101597</v>
       </c>
     </row>
     <row r="13">
@@ -7443,28 +7443,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>472.9191716819465</v>
+        <v>556.1497939725725</v>
       </c>
       <c r="AB13" t="n">
-        <v>647.0688744166071</v>
+        <v>760.9486837105491</v>
       </c>
       <c r="AC13" t="n">
-        <v>585.3135292091545</v>
+        <v>688.3248093353988</v>
       </c>
       <c r="AD13" t="n">
-        <v>472919.1716819465</v>
+        <v>556149.7939725725</v>
       </c>
       <c r="AE13" t="n">
-        <v>647068.8744166071</v>
+        <v>760948.683710549</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.243285444971968e-06</v>
+        <v>2.101835731825753e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.29340277777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>585313.5292091544</v>
+        <v>688324.8093353987</v>
       </c>
     </row>
     <row r="14">
@@ -7549,28 +7549,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>470.0344519791687</v>
+        <v>553.2650742697947</v>
       </c>
       <c r="AB14" t="n">
-        <v>643.1218736544151</v>
+        <v>757.0016829483571</v>
       </c>
       <c r="AC14" t="n">
-        <v>581.7432246600557</v>
+        <v>684.7545047863</v>
       </c>
       <c r="AD14" t="n">
-        <v>470034.4519791687</v>
+        <v>553265.0742697947</v>
       </c>
       <c r="AE14" t="n">
-        <v>643121.8736544151</v>
+        <v>757001.6829483572</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.246716646706895e-06</v>
+        <v>2.107636348601841e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.25</v>
       </c>
       <c r="AH14" t="n">
-        <v>581743.2246600557</v>
+        <v>684754.5047863</v>
       </c>
     </row>
     <row r="15">
@@ -7655,28 +7655,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>467.4029103850686</v>
+        <v>550.6335326756947</v>
       </c>
       <c r="AB15" t="n">
-        <v>639.5212823499459</v>
+        <v>753.4010916438878</v>
       </c>
       <c r="AC15" t="n">
-        <v>578.4862687362233</v>
+        <v>681.4975488624677</v>
       </c>
       <c r="AD15" t="n">
-        <v>467402.9103850686</v>
+        <v>550633.5326756947</v>
       </c>
       <c r="AE15" t="n">
-        <v>639521.2823499459</v>
+        <v>753401.0916438878</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.250264555983826e-06</v>
+        <v>2.113634265268274e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.20659722222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>578486.2687362233</v>
+        <v>681497.5488624678</v>
       </c>
     </row>
     <row r="16">
@@ -7761,28 +7761,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>464.0493278056282</v>
+        <v>547.2799500962541</v>
       </c>
       <c r="AB16" t="n">
-        <v>634.9327627151339</v>
+        <v>748.8125720090759</v>
       </c>
       <c r="AC16" t="n">
-        <v>574.33567097533</v>
+        <v>677.3469511015744</v>
       </c>
       <c r="AD16" t="n">
-        <v>464049.3278056282</v>
+        <v>547279.9500962541</v>
       </c>
       <c r="AE16" t="n">
-        <v>634932.7627151338</v>
+        <v>748812.5720090759</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.255142931239606e-06</v>
+        <v>2.121881400684618e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>574335.6709753301</v>
+        <v>677346.9511015743</v>
       </c>
     </row>
     <row r="17">
@@ -7867,28 +7867,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>460.5843857797062</v>
+        <v>543.8150080703323</v>
       </c>
       <c r="AB17" t="n">
-        <v>630.1918761728137</v>
+        <v>744.0716854667556</v>
       </c>
       <c r="AC17" t="n">
-        <v>570.0472479907328</v>
+        <v>673.0585281169772</v>
       </c>
       <c r="AD17" t="n">
-        <v>460584.3857797062</v>
+        <v>543815.0080703322</v>
       </c>
       <c r="AE17" t="n">
-        <v>630191.8761728137</v>
+        <v>744071.6854667556</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.258690840516537e-06</v>
+        <v>2.127879317351051e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH17" t="n">
-        <v>570047.2479907328</v>
+        <v>673058.5281169772</v>
       </c>
     </row>
     <row r="18">
@@ -7973,28 +7973,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>459.6744885372515</v>
+        <v>542.9051108278775</v>
       </c>
       <c r="AB18" t="n">
-        <v>628.9469146238539</v>
+        <v>742.8267239177958</v>
       </c>
       <c r="AC18" t="n">
-        <v>568.9211038246913</v>
+        <v>671.9323839509357</v>
       </c>
       <c r="AD18" t="n">
-        <v>459674.4885372515</v>
+        <v>542905.1108278775</v>
       </c>
       <c r="AE18" t="n">
-        <v>628946.9146238539</v>
+        <v>742826.7239177958</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.258970938617348e-06</v>
+        <v>2.128352837087874e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH18" t="n">
-        <v>568921.1038246913</v>
+        <v>671932.3839509357</v>
       </c>
     </row>
     <row r="19">
@@ -8079,28 +8079,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>456.5341800183627</v>
+        <v>539.7648023089887</v>
       </c>
       <c r="AB19" t="n">
-        <v>624.6502059676761</v>
+        <v>738.5300152616179</v>
       </c>
       <c r="AC19" t="n">
-        <v>565.0344670121906</v>
+        <v>668.045747138435</v>
       </c>
       <c r="AD19" t="n">
-        <v>456534.1800183627</v>
+        <v>539764.8023089886</v>
       </c>
       <c r="AE19" t="n">
-        <v>624650.2059676761</v>
+        <v>738530.015261618</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.262518847894279e-06</v>
+        <v>2.134350753754306e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16.05034722222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>565034.4670121906</v>
+        <v>668045.747138435</v>
       </c>
     </row>
     <row r="20">
@@ -8185,28 +8185,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>455.4568853793064</v>
+        <v>538.6875076699324</v>
       </c>
       <c r="AB20" t="n">
-        <v>623.1762039156341</v>
+        <v>737.0560132095761</v>
       </c>
       <c r="AC20" t="n">
-        <v>563.7011416472205</v>
+        <v>666.7124217734651</v>
       </c>
       <c r="AD20" t="n">
-        <v>455456.8853793064</v>
+        <v>538687.5076699324</v>
       </c>
       <c r="AE20" t="n">
-        <v>623176.2039156341</v>
+        <v>737056.0132095761</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.262798945995089e-06</v>
+        <v>2.13482427349113e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>563701.1416472206</v>
+        <v>666712.421773465</v>
       </c>
     </row>
     <row r="21">
@@ -8291,28 +8291,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>441.3619229794135</v>
+        <v>534.9215991114977</v>
       </c>
       <c r="AB21" t="n">
-        <v>603.8908545342458</v>
+        <v>731.9033309797658</v>
       </c>
       <c r="AC21" t="n">
-        <v>546.2563589436342</v>
+        <v>662.0515043038328</v>
       </c>
       <c r="AD21" t="n">
-        <v>441361.9229794135</v>
+        <v>534921.5991114978</v>
       </c>
       <c r="AE21" t="n">
-        <v>603890.8545342458</v>
+        <v>731903.3309797657</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.266930392982042e-06</v>
+        <v>2.141808689609278e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>546256.3589436342</v>
+        <v>662051.5043038328</v>
       </c>
     </row>
     <row r="22">
@@ -8397,28 +8397,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>439.7131935408798</v>
+        <v>533.272869672964</v>
       </c>
       <c r="AB22" t="n">
-        <v>601.6349901796347</v>
+        <v>729.6474666251545</v>
       </c>
       <c r="AC22" t="n">
-        <v>544.2157911169016</v>
+        <v>660.0109364771002</v>
       </c>
       <c r="AD22" t="n">
-        <v>439713.1935408798</v>
+        <v>533272.869672964</v>
       </c>
       <c r="AE22" t="n">
-        <v>601634.9901796347</v>
+        <v>729647.4666251545</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.267280515608055e-06</v>
+        <v>2.142400589280307e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>544215.7911169017</v>
+        <v>660010.9364771002</v>
       </c>
     </row>
     <row r="23">
@@ -8503,28 +8503,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>436.824683689907</v>
+        <v>530.3843598219912</v>
       </c>
       <c r="AB23" t="n">
-        <v>597.6828035694728</v>
+        <v>725.6952800149927</v>
       </c>
       <c r="AC23" t="n">
-        <v>540.6407956498848</v>
+        <v>656.4359410100833</v>
       </c>
       <c r="AD23" t="n">
-        <v>436824.683689907</v>
+        <v>530384.3598219912</v>
       </c>
       <c r="AE23" t="n">
-        <v>597682.8035694727</v>
+        <v>725695.2800149927</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.266813685440038e-06</v>
+        <v>2.141611389718935e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>15.99826388888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>540640.7956498849</v>
+        <v>656435.9410100833</v>
       </c>
     </row>
     <row r="24">
@@ -8609,28 +8609,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>435.2322923604738</v>
+        <v>528.791968492558</v>
       </c>
       <c r="AB24" t="n">
-        <v>595.504023501195</v>
+        <v>723.5164999467148</v>
       </c>
       <c r="AC24" t="n">
-        <v>538.6699552933864</v>
+        <v>654.4651006535851</v>
       </c>
       <c r="AD24" t="n">
-        <v>435232.2923604738</v>
+        <v>528791.968492558</v>
       </c>
       <c r="AE24" t="n">
-        <v>595504.023501195</v>
+        <v>723516.4999467148</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.270198204158163e-06</v>
+        <v>2.147333086538887e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15.95486111111111</v>
       </c>
       <c r="AH24" t="n">
-        <v>538669.9552933864</v>
+        <v>654465.100653585</v>
       </c>
     </row>
     <row r="25">
@@ -8715,28 +8715,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>434.9091672366853</v>
+        <v>528.4688433687696</v>
       </c>
       <c r="AB25" t="n">
-        <v>595.0619094515532</v>
+        <v>723.0743858970729</v>
       </c>
       <c r="AC25" t="n">
-        <v>538.2700359881316</v>
+        <v>654.0651813483302</v>
       </c>
       <c r="AD25" t="n">
-        <v>434909.1672366853</v>
+        <v>528468.8433687696</v>
       </c>
       <c r="AE25" t="n">
-        <v>595061.9094515532</v>
+        <v>723074.385897073</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.270548326784176e-06</v>
+        <v>2.147924986209916e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>15.94618055555556</v>
       </c>
       <c r="AH25" t="n">
-        <v>538270.0359881315</v>
+        <v>654065.1813483301</v>
       </c>
     </row>
     <row r="26">
@@ -8821,28 +8821,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>435.7700179767678</v>
+        <v>529.329694108852</v>
       </c>
       <c r="AB26" t="n">
-        <v>596.2397634121883</v>
+        <v>724.2522398577081</v>
       </c>
       <c r="AC26" t="n">
-        <v>539.3354772198919</v>
+        <v>655.1306225800905</v>
       </c>
       <c r="AD26" t="n">
-        <v>435770.0179767678</v>
+        <v>529329.694108852</v>
       </c>
       <c r="AE26" t="n">
-        <v>596239.7634121883</v>
+        <v>724252.2398577081</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.270781741868184e-06</v>
+        <v>2.148319585990603e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>15.94618055555556</v>
       </c>
       <c r="AH26" t="n">
-        <v>539335.477219892</v>
+        <v>655130.6225800905</v>
       </c>
     </row>
   </sheetData>
@@ -9118,28 +9118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>719.1441278361837</v>
+        <v>840.060349761913</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.9647221052504</v>
+        <v>1149.407631391258</v>
       </c>
       <c r="AC2" t="n">
-        <v>890.0565100306857</v>
+        <v>1039.709780255018</v>
       </c>
       <c r="AD2" t="n">
-        <v>719144.1278361836</v>
+        <v>840060.3497619131</v>
       </c>
       <c r="AE2" t="n">
-        <v>983964.7221052505</v>
+        <v>1149407.631391258</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.007596883454718e-07</v>
+        <v>1.559927528179963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.27256944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>890056.5100306857</v>
+        <v>1039709.780255018</v>
       </c>
     </row>
     <row r="3">
@@ -9224,28 +9224,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>538.089782707883</v>
+        <v>638.9101202919128</v>
       </c>
       <c r="AB3" t="n">
-        <v>736.2381795467358</v>
+        <v>874.1850133085838</v>
       </c>
       <c r="AC3" t="n">
-        <v>665.9726410075695</v>
+        <v>790.7540225647839</v>
       </c>
       <c r="AD3" t="n">
-        <v>538089.782707883</v>
+        <v>638910.1202919128</v>
       </c>
       <c r="AE3" t="n">
-        <v>736238.1795467357</v>
+        <v>874185.0133085839</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.107236100929702e-06</v>
+        <v>1.917501522750703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.93229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>665972.6410075695</v>
+        <v>790754.0225647839</v>
       </c>
     </row>
     <row r="4">
@@ -9330,28 +9330,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>493.5745418008789</v>
+        <v>584.38965239562</v>
       </c>
       <c r="AB4" t="n">
-        <v>675.3304630639471</v>
+        <v>799.5877038595884</v>
       </c>
       <c r="AC4" t="n">
-        <v>610.8778715013812</v>
+        <v>723.276175631619</v>
       </c>
       <c r="AD4" t="n">
-        <v>493574.5418008789</v>
+        <v>584389.65239562</v>
       </c>
       <c r="AE4" t="n">
-        <v>675330.4630639472</v>
+        <v>799587.7038595884</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183394047987434e-06</v>
+        <v>2.049391170613656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>610877.8715013812</v>
+        <v>723276.1756316191</v>
       </c>
     </row>
     <row r="5">
@@ -9436,28 +9436,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>475.8802810197552</v>
+        <v>556.6049132791874</v>
       </c>
       <c r="AB5" t="n">
-        <v>651.1203948475213</v>
+        <v>761.5713980243063</v>
       </c>
       <c r="AC5" t="n">
-        <v>588.9783782164869</v>
+        <v>688.888092669036</v>
       </c>
       <c r="AD5" t="n">
-        <v>475880.2810197552</v>
+        <v>556604.9132791874</v>
       </c>
       <c r="AE5" t="n">
-        <v>651120.3948475213</v>
+        <v>761571.3980243063</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.225022551705737e-06</v>
+        <v>2.12148303900799e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>588978.3782164869</v>
+        <v>688888.092669036</v>
       </c>
     </row>
     <row r="6">
@@ -9542,28 +9542,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>453.5612352975189</v>
+        <v>544.2910050376884</v>
       </c>
       <c r="AB6" t="n">
-        <v>620.582491843553</v>
+        <v>744.7229655169966</v>
       </c>
       <c r="AC6" t="n">
-        <v>561.3549698150014</v>
+        <v>673.6476509133005</v>
       </c>
       <c r="AD6" t="n">
-        <v>453561.2352975188</v>
+        <v>544291.0050376884</v>
       </c>
       <c r="AE6" t="n">
-        <v>620582.491843553</v>
+        <v>744722.9655169966</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.253756843715471e-06</v>
+        <v>2.171244827516841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH6" t="n">
-        <v>561354.9698150014</v>
+        <v>673647.6509133005</v>
       </c>
     </row>
     <row r="7">
@@ -9648,28 +9648,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>446.3113364975238</v>
+        <v>537.0411062376935</v>
       </c>
       <c r="AB7" t="n">
-        <v>610.6628604624381</v>
+        <v>734.8033341358816</v>
       </c>
       <c r="AC7" t="n">
-        <v>552.3820541306098</v>
+        <v>664.674735228909</v>
       </c>
       <c r="AD7" t="n">
-        <v>446311.3364975238</v>
+        <v>537041.1062376935</v>
       </c>
       <c r="AE7" t="n">
-        <v>610662.8604624381</v>
+        <v>734803.3341358816</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.269814242191499e-06</v>
+        <v>2.199052885801198e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>552382.0541306098</v>
+        <v>664674.7352289089</v>
       </c>
     </row>
     <row r="8">
@@ -9754,28 +9754,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>440.6804767001262</v>
+        <v>521.3197681049867</v>
       </c>
       <c r="AB8" t="n">
-        <v>602.958469671637</v>
+        <v>713.2927057262242</v>
       </c>
       <c r="AC8" t="n">
-        <v>545.4129595837022</v>
+        <v>645.2170510043127</v>
       </c>
       <c r="AD8" t="n">
-        <v>440680.4767001263</v>
+        <v>521319.7681049867</v>
       </c>
       <c r="AE8" t="n">
-        <v>602958.4696716369</v>
+        <v>713292.7057262242</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.280462832759812e-06</v>
+        <v>2.217494019189772e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.37152777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>545412.9595837023</v>
+        <v>645217.0510043127</v>
       </c>
     </row>
     <row r="9">
@@ -9860,28 +9860,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>435.3860229193612</v>
+        <v>516.0253143242217</v>
       </c>
       <c r="AB9" t="n">
-        <v>595.7143644339782</v>
+        <v>706.0486004885654</v>
       </c>
       <c r="AC9" t="n">
-        <v>538.8602215827601</v>
+        <v>638.6643130033706</v>
       </c>
       <c r="AD9" t="n">
-        <v>435386.0229193611</v>
+        <v>516025.3143242216</v>
       </c>
       <c r="AE9" t="n">
-        <v>595714.3644339782</v>
+        <v>706048.6004885654</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.291690938461095e-06</v>
+        <v>2.236938751674323e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>538860.2215827601</v>
+        <v>638664.3130033705</v>
       </c>
     </row>
     <row r="10">
@@ -9966,28 +9966,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>431.7813177005638</v>
+        <v>512.4206091054243</v>
       </c>
       <c r="AB10" t="n">
-        <v>590.782247725249</v>
+        <v>701.1164837798364</v>
       </c>
       <c r="AC10" t="n">
-        <v>534.3988191704428</v>
+        <v>634.2029105910532</v>
       </c>
       <c r="AD10" t="n">
-        <v>431781.3177005638</v>
+        <v>512420.6091054243</v>
       </c>
       <c r="AE10" t="n">
-        <v>590782.247725249</v>
+        <v>701116.4837798363</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.296785842338451e-06</v>
+        <v>2.245762060393119e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.16319444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>534398.8191704429</v>
+        <v>634202.9105910532</v>
       </c>
     </row>
     <row r="11">
@@ -10072,28 +10072,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>426.793054469815</v>
+        <v>507.4323458746755</v>
       </c>
       <c r="AB11" t="n">
-        <v>583.9570859062965</v>
+        <v>694.2913219608837</v>
       </c>
       <c r="AC11" t="n">
-        <v>528.2250412163163</v>
+        <v>628.0291326369266</v>
       </c>
       <c r="AD11" t="n">
-        <v>426793.054469815</v>
+        <v>507432.3458746755</v>
       </c>
       <c r="AE11" t="n">
-        <v>583957.0859062965</v>
+        <v>694291.3219608837</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.305840766291098e-06</v>
+        <v>2.261443296267757e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.05034722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>528225.0412163163</v>
+        <v>628029.1326369266</v>
       </c>
     </row>
     <row r="12">
@@ -10178,28 +10178,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>423.4786771970385</v>
+        <v>504.1179686018991</v>
       </c>
       <c r="AB12" t="n">
-        <v>579.4222087016778</v>
+        <v>689.7564447562653</v>
       </c>
       <c r="AC12" t="n">
-        <v>524.1229663273665</v>
+        <v>623.9270577479768</v>
       </c>
       <c r="AD12" t="n">
-        <v>423478.6771970385</v>
+        <v>504117.968601899</v>
       </c>
       <c r="AE12" t="n">
-        <v>579422.2087016779</v>
+        <v>689756.4447562653</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.309728346974768e-06</v>
+        <v>2.268175773536602e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.00694444444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>524122.9663273665</v>
+        <v>623927.0577479769</v>
       </c>
     </row>
     <row r="13">
@@ -10284,28 +10284,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>410.1720757919789</v>
+        <v>500.8165046775768</v>
       </c>
       <c r="AB13" t="n">
-        <v>561.215529613453</v>
+        <v>685.2392361646988</v>
       </c>
       <c r="AC13" t="n">
-        <v>507.6539071380872</v>
+        <v>619.8409652044473</v>
       </c>
       <c r="AD13" t="n">
-        <v>410172.0757919789</v>
+        <v>500816.5046775768</v>
       </c>
       <c r="AE13" t="n">
-        <v>561215.529613453</v>
+        <v>685239.2361646988</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.312456897392499e-06</v>
+        <v>2.272901052613492e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.97222222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>507653.9071380872</v>
+        <v>619840.9652044474</v>
       </c>
     </row>
     <row r="14">
@@ -10390,28 +10390,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>406.3707119415772</v>
+        <v>497.0151408271751</v>
       </c>
       <c r="AB14" t="n">
-        <v>556.0143358889962</v>
+        <v>680.0380424402422</v>
       </c>
       <c r="AC14" t="n">
-        <v>502.9491080427713</v>
+        <v>615.1361661091316</v>
       </c>
       <c r="AD14" t="n">
-        <v>406370.7119415771</v>
+        <v>497015.1408271751</v>
       </c>
       <c r="AE14" t="n">
-        <v>556014.3358889963</v>
+        <v>680038.0424402421</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.317310336631118e-06</v>
+        <v>2.281306195042298e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.91145833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>502949.1080427713</v>
+        <v>615136.1661091316</v>
       </c>
     </row>
     <row r="15">
@@ -10496,28 +10496,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>403.23853698313</v>
+        <v>493.8829658687279</v>
       </c>
       <c r="AB15" t="n">
-        <v>551.7287559290421</v>
+        <v>675.7524624802878</v>
       </c>
       <c r="AC15" t="n">
-        <v>499.0725378193459</v>
+        <v>611.2595958857062</v>
       </c>
       <c r="AD15" t="n">
-        <v>403238.53698313</v>
+        <v>493882.9658687279</v>
       </c>
       <c r="AE15" t="n">
-        <v>551728.7559290421</v>
+        <v>675752.4624802878</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.320932306212177e-06</v>
+        <v>2.287578689392153e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.86805555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>499072.5378193459</v>
+        <v>611259.5958857061</v>
       </c>
     </row>
     <row r="16">
@@ -10602,28 +10602,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>399.3717968322077</v>
+        <v>480.0963395830889</v>
       </c>
       <c r="AB16" t="n">
-        <v>546.4381114660144</v>
+        <v>656.888992173251</v>
       </c>
       <c r="AC16" t="n">
-        <v>494.2868250384034</v>
+        <v>594.196428709726</v>
       </c>
       <c r="AD16" t="n">
-        <v>399371.7968322077</v>
+        <v>480096.3395830889</v>
       </c>
       <c r="AE16" t="n">
-        <v>546438.1114660144</v>
+        <v>656888.992173251</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.323902321268645e-06</v>
+        <v>2.292722134759034e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>494286.8250384034</v>
+        <v>594196.428709726</v>
       </c>
     </row>
     <row r="17">
@@ -10708,28 +10708,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>397.5199177097199</v>
+        <v>478.244460460601</v>
       </c>
       <c r="AB17" t="n">
-        <v>543.9042887514858</v>
+        <v>654.3551694587223</v>
       </c>
       <c r="AC17" t="n">
-        <v>491.994826807507</v>
+        <v>591.9044304788295</v>
       </c>
       <c r="AD17" t="n">
-        <v>397519.91770972</v>
+        <v>478244.460460601</v>
       </c>
       <c r="AE17" t="n">
-        <v>543904.2887514858</v>
+        <v>654355.1694587223</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.323685003093782e-06</v>
+        <v>2.292345785098043e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>491994.826807507</v>
+        <v>591904.4304788294</v>
       </c>
     </row>
     <row r="18">
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>394.6082497609786</v>
+        <v>475.3327925118597</v>
       </c>
       <c r="AB18" t="n">
-        <v>539.9204162102938</v>
+        <v>650.3712969175302</v>
       </c>
       <c r="AC18" t="n">
-        <v>488.391169470246</v>
+        <v>588.3007731415685</v>
       </c>
       <c r="AD18" t="n">
-        <v>394608.2497609786</v>
+        <v>475332.7925118597</v>
       </c>
       <c r="AE18" t="n">
-        <v>539920.4162102938</v>
+        <v>650371.2969175302</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.328055513054926e-06</v>
+        <v>2.299914594946868e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH18" t="n">
-        <v>488391.1694702461</v>
+        <v>588300.7731415685</v>
       </c>
     </row>
   </sheetData>
@@ -11111,28 +11111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>400.4931202715228</v>
+        <v>482.4461594399406</v>
       </c>
       <c r="AB2" t="n">
-        <v>547.9723556649841</v>
+        <v>660.1041193681311</v>
       </c>
       <c r="AC2" t="n">
-        <v>495.6746431243488</v>
+        <v>597.1047086775861</v>
       </c>
       <c r="AD2" t="n">
-        <v>400493.1202715228</v>
+        <v>482446.1594399406</v>
       </c>
       <c r="AE2" t="n">
-        <v>547972.3556649841</v>
+        <v>660104.1193681312</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.276953962775258e-06</v>
+        <v>2.41627168493591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.31597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>495674.6431243488</v>
+        <v>597104.7086775862</v>
       </c>
     </row>
     <row r="3">
@@ -11217,28 +11217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>342.8062933958519</v>
+        <v>424.7592430557185</v>
       </c>
       <c r="AB3" t="n">
-        <v>469.0426941705038</v>
+        <v>581.1743354041024</v>
       </c>
       <c r="AC3" t="n">
-        <v>424.277917744426</v>
+        <v>525.707872516437</v>
       </c>
       <c r="AD3" t="n">
-        <v>342806.2933958519</v>
+        <v>424759.2430557185</v>
       </c>
       <c r="AE3" t="n">
-        <v>469042.6941705038</v>
+        <v>581174.3354041025</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.413667494459719e-06</v>
+        <v>2.674963106229452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.54513888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>424277.9177444259</v>
+        <v>525707.872516437</v>
       </c>
     </row>
     <row r="4">
@@ -11323,28 +11323,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>318.5387266794741</v>
+        <v>400.4063354847692</v>
       </c>
       <c r="AB4" t="n">
-        <v>435.8387387796721</v>
+        <v>547.8536128910731</v>
       </c>
       <c r="AC4" t="n">
-        <v>394.2429012540511</v>
+        <v>495.5672329941233</v>
       </c>
       <c r="AD4" t="n">
-        <v>318538.7266794741</v>
+        <v>400406.3354847691</v>
       </c>
       <c r="AE4" t="n">
-        <v>435838.7387796721</v>
+        <v>547853.6128910731</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.463379056532606e-06</v>
+        <v>2.769028079088455e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.98090277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>394242.9012540511</v>
+        <v>495567.2329941233</v>
       </c>
     </row>
     <row r="5">
@@ -11429,28 +11429,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>308.8244819714149</v>
+        <v>381.7474068731378</v>
       </c>
       <c r="AB5" t="n">
-        <v>422.5472806078755</v>
+        <v>522.3236435908054</v>
       </c>
       <c r="AC5" t="n">
-        <v>382.2199611954921</v>
+        <v>472.4738081323363</v>
       </c>
       <c r="AD5" t="n">
-        <v>308824.4819714149</v>
+        <v>381747.4068731378</v>
       </c>
       <c r="AE5" t="n">
-        <v>422547.2806078754</v>
+        <v>522323.6435908055</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.486766393052534e-06</v>
+        <v>2.813281952498545e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.72916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>382219.9611954921</v>
+        <v>472473.8081323363</v>
       </c>
     </row>
     <row r="6">
@@ -11535,28 +11535,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>302.8163204971734</v>
+        <v>375.7392453988963</v>
       </c>
       <c r="AB6" t="n">
-        <v>414.326649017441</v>
+        <v>514.1030120003711</v>
       </c>
       <c r="AC6" t="n">
-        <v>374.7838951463198</v>
+        <v>465.0377420831641</v>
       </c>
       <c r="AD6" t="n">
-        <v>302816.3204971734</v>
+        <v>375739.2453988963</v>
       </c>
       <c r="AE6" t="n">
-        <v>414326.649017441</v>
+        <v>514103.0120003711</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.498756444609409e-06</v>
+        <v>2.835969710179984e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.60763888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>374783.8951463198</v>
+        <v>465037.742083164</v>
       </c>
     </row>
   </sheetData>
@@ -11832,28 +11832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>494.270944549681</v>
+        <v>598.5632014092348</v>
       </c>
       <c r="AB2" t="n">
-        <v>676.2833120279792</v>
+        <v>818.9805789128675</v>
       </c>
       <c r="AC2" t="n">
-        <v>611.7397818976179</v>
+        <v>740.8182219078843</v>
       </c>
       <c r="AD2" t="n">
-        <v>494270.944549681</v>
+        <v>598563.2014092348</v>
       </c>
       <c r="AE2" t="n">
-        <v>676283.3120279792</v>
+        <v>818980.5789128675</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.12784676071073e-06</v>
+        <v>2.054691858142736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.83506944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>611739.781897618</v>
+        <v>740818.2219078843</v>
       </c>
     </row>
     <row r="3">
@@ -11938,28 +11938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.699975608</v>
+        <v>497.9990604181601</v>
       </c>
       <c r="AB3" t="n">
-        <v>564.6743136648022</v>
+        <v>681.3842846320965</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.7825896940095</v>
+        <v>616.3539248356583</v>
       </c>
       <c r="AD3" t="n">
-        <v>412699.9756080001</v>
+        <v>497999.0604181601</v>
       </c>
       <c r="AE3" t="n">
-        <v>564674.3136648022</v>
+        <v>681384.2846320965</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.293125093008232e-06</v>
+        <v>2.355793085303316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.30034722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>510782.5896940095</v>
+        <v>616353.9248356583</v>
       </c>
     </row>
     <row r="4">
@@ -12044,28 +12044,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.2679174299104</v>
+        <v>468.6522535860909</v>
       </c>
       <c r="AB4" t="n">
-        <v>524.4040732147731</v>
+        <v>641.2306888347167</v>
       </c>
       <c r="AC4" t="n">
-        <v>474.3556844728937</v>
+        <v>580.0325318652548</v>
       </c>
       <c r="AD4" t="n">
-        <v>383267.9174299104</v>
+        <v>468652.2535860909</v>
       </c>
       <c r="AE4" t="n">
-        <v>524404.0732147731</v>
+        <v>641230.6888347167</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.353184125174979e-06</v>
+        <v>2.465207598604027e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.53645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>474355.6844728937</v>
+        <v>580032.5318652547</v>
       </c>
     </row>
     <row r="5">
@@ -12150,28 +12150,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>371.8813406966916</v>
+        <v>447.7691355824506</v>
       </c>
       <c r="AB5" t="n">
-        <v>508.8244565880711</v>
+        <v>612.6574854839916</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.2629645909149</v>
+        <v>554.1863149395803</v>
       </c>
       <c r="AD5" t="n">
-        <v>371881.3406966916</v>
+        <v>447769.1355824507</v>
       </c>
       <c r="AE5" t="n">
-        <v>508824.4565880711</v>
+        <v>612657.4854839917</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385043766272875e-06</v>
+        <v>2.523248945573846e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.15451388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>460262.9645909149</v>
+        <v>554186.3149395803</v>
       </c>
     </row>
     <row r="6">
@@ -12256,28 +12256,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>354.5147497270393</v>
+        <v>439.8137450286481</v>
       </c>
       <c r="AB6" t="n">
-        <v>485.062720663472</v>
+        <v>601.7725691612179</v>
       </c>
       <c r="AC6" t="n">
-        <v>438.7690153931538</v>
+        <v>544.340239753576</v>
       </c>
       <c r="AD6" t="n">
-        <v>354514.7497270392</v>
+        <v>439813.7450286481</v>
       </c>
       <c r="AE6" t="n">
-        <v>485062.720663472</v>
+        <v>601772.5691612179</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.402803711836347e-06</v>
+        <v>2.555603709378219e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.95486111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>438769.0153931538</v>
+        <v>544340.239753576</v>
       </c>
     </row>
     <row r="7">
@@ -12362,28 +12362,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>348.2417242486646</v>
+        <v>424.2147704804442</v>
       </c>
       <c r="AB7" t="n">
-        <v>476.4796904576074</v>
+        <v>580.4293640061775</v>
       </c>
       <c r="AC7" t="n">
-        <v>431.0051375437783</v>
+        <v>525.0340001431559</v>
       </c>
       <c r="AD7" t="n">
-        <v>348241.7242486646</v>
+        <v>424214.7704804442</v>
       </c>
       <c r="AE7" t="n">
-        <v>476479.6904576074</v>
+        <v>580429.3640061775</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413526697836933e-06</v>
+        <v>2.575138661109161e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>431005.1375437783</v>
+        <v>525034.0001431559</v>
       </c>
     </row>
     <row r="8">
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>342.8444069000373</v>
+        <v>418.8174531318169</v>
       </c>
       <c r="AB8" t="n">
-        <v>469.0948427483794</v>
+        <v>573.0445162969495</v>
       </c>
       <c r="AC8" t="n">
-        <v>424.3250893352201</v>
+        <v>518.3539519345977</v>
       </c>
       <c r="AD8" t="n">
-        <v>342844.4069000373</v>
+        <v>418817.4531318169</v>
       </c>
       <c r="AE8" t="n">
-        <v>469094.8427483794</v>
+        <v>573044.5162969495</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.422161794736444e-06</v>
+        <v>2.590869932334799e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.72916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>424325.0893352201</v>
+        <v>518353.9519345977</v>
       </c>
     </row>
     <row r="9">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>337.0806086900049</v>
+        <v>413.0536549217846</v>
       </c>
       <c r="AB9" t="n">
-        <v>461.2085597565824</v>
+        <v>565.1582333051525</v>
       </c>
       <c r="AC9" t="n">
-        <v>417.1914621236925</v>
+        <v>511.2203247230701</v>
       </c>
       <c r="AD9" t="n">
-        <v>337080.6086900049</v>
+        <v>413053.6549217846</v>
       </c>
       <c r="AE9" t="n">
-        <v>461208.5597565824</v>
+        <v>565158.2333051525</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.429508071203192e-06</v>
+        <v>2.604253252631238e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>417191.4621236925</v>
+        <v>511220.3247230701</v>
       </c>
     </row>
     <row r="10">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>336.1648019094998</v>
+        <v>412.1378481412794</v>
       </c>
       <c r="AB10" t="n">
-        <v>459.9555125169516</v>
+        <v>563.9051860655215</v>
       </c>
       <c r="AC10" t="n">
-        <v>416.0580039539491</v>
+        <v>510.0868665533268</v>
       </c>
       <c r="AD10" t="n">
-        <v>336164.8019094998</v>
+        <v>412137.8481412794</v>
       </c>
       <c r="AE10" t="n">
-        <v>459955.5125169515</v>
+        <v>563905.1860655216</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.433219874049549e-06</v>
+        <v>2.611015351307334e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.60763888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>416058.0039539491</v>
+        <v>510086.8665533268</v>
       </c>
     </row>
   </sheetData>
@@ -12977,28 +12977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.389094232691</v>
+        <v>412.4423517357047</v>
       </c>
       <c r="AB2" t="n">
-        <v>456.1576668179616</v>
+        <v>564.3218213171646</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.6226193181609</v>
+        <v>510.4637387213042</v>
       </c>
       <c r="AD2" t="n">
-        <v>333389.094232691</v>
+        <v>412442.3517357047</v>
       </c>
       <c r="AE2" t="n">
-        <v>456157.6668179616</v>
+        <v>564321.8213171646</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.400940200897243e-06</v>
+        <v>2.745391410170691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.33506944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>412622.6193181609</v>
+        <v>510463.7387213042</v>
       </c>
     </row>
     <row r="3">
@@ -13083,28 +13083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>296.722533710819</v>
+        <v>367.0584821013369</v>
       </c>
       <c r="AB3" t="n">
-        <v>405.9888610974515</v>
+        <v>502.2256086884022</v>
       </c>
       <c r="AC3" t="n">
-        <v>367.2418540032552</v>
+        <v>454.2939014732492</v>
       </c>
       <c r="AD3" t="n">
-        <v>296722.533710819</v>
+        <v>367058.4821013369</v>
       </c>
       <c r="AE3" t="n">
-        <v>405988.8610974515</v>
+        <v>502225.6086884022</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.514637343222823e-06</v>
+        <v>2.968201175856397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>367241.8540032553</v>
+        <v>454293.9014732492</v>
       </c>
     </row>
     <row r="4">
@@ -13189,28 +13189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.5782789678502</v>
+        <v>346.9994787043887</v>
       </c>
       <c r="AB4" t="n">
-        <v>378.4266030563238</v>
+        <v>474.7799952999238</v>
       </c>
       <c r="AC4" t="n">
-        <v>342.3100991857007</v>
+        <v>429.4676589064068</v>
       </c>
       <c r="AD4" t="n">
-        <v>276578.2789678501</v>
+        <v>346999.4787043887</v>
       </c>
       <c r="AE4" t="n">
-        <v>378426.6030563238</v>
+        <v>474779.9952999238</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.547378090582146e-06</v>
+        <v>3.032362491596558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>342310.0991857006</v>
+        <v>429467.6589064068</v>
       </c>
     </row>
     <row r="5">
@@ -13295,28 +13295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.2578179788175</v>
+        <v>347.6790177153561</v>
       </c>
       <c r="AB5" t="n">
-        <v>379.3563783102747</v>
+        <v>475.7097705538746</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.1511379943623</v>
+        <v>430.3086977150685</v>
       </c>
       <c r="AD5" t="n">
-        <v>277257.8179788175</v>
+        <v>347679.0177153561</v>
       </c>
       <c r="AE5" t="n">
-        <v>379356.3783102747</v>
+        <v>475709.7705538747</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.551183852668357e-06</v>
+        <v>3.039820559067209e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.65972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>343151.1379943623</v>
+        <v>430308.6977150685</v>
       </c>
     </row>
   </sheetData>
@@ -13592,28 +13592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>755.7826589960396</v>
+        <v>887.8961616571053</v>
       </c>
       <c r="AB2" t="n">
-        <v>1034.095176816081</v>
+        <v>1214.858699593339</v>
       </c>
       <c r="AC2" t="n">
-        <v>935.4025845024501</v>
+        <v>1098.914290369044</v>
       </c>
       <c r="AD2" t="n">
-        <v>755782.6589960395</v>
+        <v>887896.1616571053</v>
       </c>
       <c r="AE2" t="n">
-        <v>1034095.176816081</v>
+        <v>1214858.699593339</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.671593199501444e-07</v>
+        <v>1.491931313700002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>935402.5845024501</v>
+        <v>1098914.290369044</v>
       </c>
     </row>
     <row r="3">
@@ -13698,28 +13698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>569.4855664939713</v>
+        <v>671.0720391935399</v>
       </c>
       <c r="AB3" t="n">
-        <v>779.1952760070882</v>
+        <v>918.1903696335123</v>
       </c>
       <c r="AC3" t="n">
-        <v>704.8299724724093</v>
+        <v>830.5595694439668</v>
       </c>
       <c r="AD3" t="n">
-        <v>569485.5664939713</v>
+        <v>671072.0391935399</v>
       </c>
       <c r="AE3" t="n">
-        <v>779195.2760070881</v>
+        <v>918190.3696335123</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078816259763573e-06</v>
+        <v>1.856083101041371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.25347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>704829.9724724093</v>
+        <v>830559.5694439667</v>
       </c>
     </row>
     <row r="4">
@@ -13804,28 +13804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>509.5160610411858</v>
+        <v>611.1024442322034</v>
       </c>
       <c r="AB4" t="n">
-        <v>697.1423529787282</v>
+        <v>836.1373241356041</v>
       </c>
       <c r="AC4" t="n">
-        <v>630.6080652558753</v>
+        <v>756.3375514462061</v>
       </c>
       <c r="AD4" t="n">
-        <v>509516.0610411858</v>
+        <v>611102.4442322034</v>
       </c>
       <c r="AE4" t="n">
-        <v>697142.3529787282</v>
+        <v>836137.3241356041</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.160272474927498e-06</v>
+        <v>1.996226988447818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.89930555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>630608.0652558753</v>
+        <v>756337.5514462062</v>
       </c>
     </row>
     <row r="5">
@@ -13910,28 +13910,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>490.2580446800608</v>
+        <v>581.6688108896134</v>
       </c>
       <c r="AB5" t="n">
-        <v>670.7926853897171</v>
+        <v>795.8649284760144</v>
       </c>
       <c r="AC5" t="n">
-        <v>606.7731729595687</v>
+        <v>719.9086967057054</v>
       </c>
       <c r="AD5" t="n">
-        <v>490258.0446800608</v>
+        <v>581668.8108896133</v>
       </c>
       <c r="AE5" t="n">
-        <v>670792.6853897171</v>
+        <v>795864.9284760144</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.204374650176356e-06</v>
+        <v>2.072103952164058e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.24826388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>606773.1729595687</v>
+        <v>719908.6967057055</v>
       </c>
     </row>
     <row r="6">
@@ -14016,28 +14016,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>468.4816017579399</v>
+        <v>559.9776193135131</v>
       </c>
       <c r="AB6" t="n">
-        <v>640.9971954748131</v>
+        <v>766.1860832137597</v>
       </c>
       <c r="AC6" t="n">
-        <v>579.8213227839104</v>
+        <v>693.0623587807594</v>
       </c>
       <c r="AD6" t="n">
-        <v>468481.6017579399</v>
+        <v>559977.619313513</v>
       </c>
       <c r="AE6" t="n">
-        <v>640997.1954748131</v>
+        <v>766186.0832137597</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.230864670795176e-06</v>
+        <v>2.117679534819444e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>579821.3227839104</v>
+        <v>693062.3587807594</v>
       </c>
     </row>
     <row r="7">
@@ -14122,28 +14122,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>460.6550420297351</v>
+        <v>552.1510595853082</v>
       </c>
       <c r="AB7" t="n">
-        <v>630.288551171237</v>
+        <v>755.4774389101835</v>
       </c>
       <c r="AC7" t="n">
-        <v>570.1346964629909</v>
+        <v>683.3757324598399</v>
       </c>
       <c r="AD7" t="n">
-        <v>460655.0420297351</v>
+        <v>552151.0595853082</v>
       </c>
       <c r="AE7" t="n">
-        <v>630288.551171237</v>
+        <v>755477.4389101835</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.248333248077686e-06</v>
+        <v>2.147733893752084e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>570134.6964629908</v>
+        <v>683375.7324598399</v>
       </c>
     </row>
     <row r="8">
@@ -14228,28 +14228,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>453.7831909258689</v>
+        <v>535.1035914999769</v>
       </c>
       <c r="AB8" t="n">
-        <v>620.8861813262528</v>
+        <v>732.1523409946204</v>
       </c>
       <c r="AC8" t="n">
-        <v>561.629675599703</v>
+        <v>662.2767491523574</v>
       </c>
       <c r="AD8" t="n">
-        <v>453783.1909258689</v>
+        <v>535103.5914999769</v>
       </c>
       <c r="AE8" t="n">
-        <v>620886.1813262528</v>
+        <v>732152.3409946205</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.262547405482907e-06</v>
+        <v>2.172189084445218e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.44965277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>561629.675599703</v>
+        <v>662276.7491523575</v>
       </c>
     </row>
     <row r="9">
@@ -14334,28 +14334,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>449.1150481685798</v>
+        <v>530.435448742688</v>
       </c>
       <c r="AB9" t="n">
-        <v>614.4990224618064</v>
+        <v>725.765182130174</v>
       </c>
       <c r="AC9" t="n">
-        <v>555.8520982128455</v>
+        <v>656.4991717655001</v>
       </c>
       <c r="AD9" t="n">
-        <v>449115.0481685799</v>
+        <v>530435.4487426879</v>
       </c>
       <c r="AE9" t="n">
-        <v>614499.0224618063</v>
+        <v>725765.182130174</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.270659525618209e-06</v>
+        <v>2.18614583468928e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.34548611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>555852.0982128455</v>
+        <v>656499.1717655001</v>
       </c>
     </row>
     <row r="10">
@@ -14440,28 +14440,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>445.1017522303174</v>
+        <v>526.4221528044254</v>
       </c>
       <c r="AB10" t="n">
-        <v>609.0078539049547</v>
+        <v>720.2740135733225</v>
       </c>
       <c r="AC10" t="n">
-        <v>550.8849990761564</v>
+        <v>651.532072628811</v>
       </c>
       <c r="AD10" t="n">
-        <v>445101.7522303174</v>
+        <v>526422.1528044255</v>
       </c>
       <c r="AE10" t="n">
-        <v>609007.8539049547</v>
+        <v>720274.0135733224</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.277120506256946e-06</v>
+        <v>2.197261830458886e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.26736111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>550884.9990761564</v>
+        <v>651532.072628811</v>
       </c>
     </row>
     <row r="11">
@@ -14546,28 +14546,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>441.101116819205</v>
+        <v>522.4215173933131</v>
       </c>
       <c r="AB11" t="n">
-        <v>603.5340080398929</v>
+        <v>714.8001677082606</v>
       </c>
       <c r="AC11" t="n">
-        <v>545.9335693778651</v>
+        <v>646.5806429305196</v>
       </c>
       <c r="AD11" t="n">
-        <v>441101.116819205</v>
+        <v>522421.5173933131</v>
       </c>
       <c r="AE11" t="n">
-        <v>603534.0080398929</v>
+        <v>714800.1677082606</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.284419021422926e-06</v>
+        <v>2.209818788643071e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH11" t="n">
-        <v>545933.5693778651</v>
+        <v>646580.6429305197</v>
       </c>
     </row>
     <row r="12">
@@ -14652,28 +14652,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>437.1073506353045</v>
+        <v>518.4277512094126</v>
       </c>
       <c r="AB12" t="n">
-        <v>598.0695609545512</v>
+        <v>709.3357206229188</v>
       </c>
       <c r="AC12" t="n">
-        <v>540.9906414529487</v>
+        <v>641.6377150056034</v>
       </c>
       <c r="AD12" t="n">
-        <v>437107.3506353045</v>
+        <v>518427.7512094126</v>
       </c>
       <c r="AE12" t="n">
-        <v>598069.5609545512</v>
+        <v>709335.7206229188</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.288750271406672e-06</v>
+        <v>2.217270622844178e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>540990.6414529487</v>
+        <v>641637.7150056034</v>
       </c>
     </row>
     <row r="13">
@@ -14758,28 +14758,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>432.6289315237963</v>
+        <v>513.9493320979044</v>
       </c>
       <c r="AB13" t="n">
-        <v>591.9419903522786</v>
+        <v>703.2081500206461</v>
       </c>
       <c r="AC13" t="n">
-        <v>535.4478775888576</v>
+        <v>636.0949511415123</v>
       </c>
       <c r="AD13" t="n">
-        <v>432628.9315237963</v>
+        <v>513949.3320979044</v>
       </c>
       <c r="AE13" t="n">
-        <v>591941.9903522786</v>
+        <v>703208.1500206462</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.29638380038355e-06</v>
+        <v>2.230403965994195e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.02430555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>535447.8775888577</v>
+        <v>636094.9511415123</v>
       </c>
     </row>
     <row r="14">
@@ -14864,28 +14864,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>419.3937135805953</v>
+        <v>510.8043902815968</v>
       </c>
       <c r="AB14" t="n">
-        <v>573.8329812657846</v>
+        <v>698.9051018825332</v>
       </c>
       <c r="AC14" t="n">
-        <v>519.0671669134249</v>
+        <v>632.2025798783349</v>
       </c>
       <c r="AD14" t="n">
-        <v>419393.7135805953</v>
+        <v>510804.3902815968</v>
       </c>
       <c r="AE14" t="n">
-        <v>573832.9812657846</v>
+        <v>698905.1018825333</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.300116811419264e-06</v>
+        <v>2.236826541327745e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.98090277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>519067.1669134249</v>
+        <v>632202.5798783349</v>
       </c>
     </row>
     <row r="15">
@@ -14970,28 +14970,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>416.44813640225</v>
+        <v>507.8588131032515</v>
       </c>
       <c r="AB15" t="n">
-        <v>569.8027126206788</v>
+        <v>694.8748332374275</v>
       </c>
       <c r="AC15" t="n">
-        <v>515.4215414512903</v>
+        <v>628.5569544162004</v>
       </c>
       <c r="AD15" t="n">
-        <v>416448.13640225</v>
+        <v>507858.8131032515</v>
       </c>
       <c r="AE15" t="n">
-        <v>569802.7126206788</v>
+        <v>694874.8332374275</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.300068952303422e-06</v>
+        <v>2.23674420061834e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.98090277777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>515421.5414512903</v>
+        <v>628556.9544162004</v>
       </c>
     </row>
     <row r="16">
@@ -15076,28 +15076,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>414.321329454247</v>
+        <v>505.7320061552485</v>
       </c>
       <c r="AB16" t="n">
-        <v>566.8927215263208</v>
+        <v>691.9648421430695</v>
       </c>
       <c r="AC16" t="n">
-        <v>512.7892758227797</v>
+        <v>625.9246887876897</v>
       </c>
       <c r="AD16" t="n">
-        <v>414321.329454247</v>
+        <v>505732.0061552486</v>
       </c>
       <c r="AE16" t="n">
-        <v>566892.7215263208</v>
+        <v>691964.8421430695</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.30425662493964e-06</v>
+        <v>2.243949012691234e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.92881944444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>512789.2758227797</v>
+        <v>625924.6887876897</v>
       </c>
     </row>
     <row r="17">
@@ -15182,28 +15182,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>411.0132096887039</v>
+        <v>502.4238863897054</v>
       </c>
       <c r="AB17" t="n">
-        <v>562.3664061191608</v>
+        <v>687.4385267359095</v>
       </c>
       <c r="AC17" t="n">
-        <v>508.6949456053554</v>
+        <v>621.8303585702656</v>
       </c>
       <c r="AD17" t="n">
-        <v>411013.2096887039</v>
+        <v>502423.8863897054</v>
       </c>
       <c r="AE17" t="n">
-        <v>562366.4061191608</v>
+        <v>687438.5267359095</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.307439256143166e-06</v>
+        <v>2.249424669866632e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>508694.9456053554</v>
+        <v>621830.3585702656</v>
       </c>
     </row>
     <row r="18">
@@ -15288,28 +15288,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>408.6263145488667</v>
+        <v>500.0369912498683</v>
       </c>
       <c r="AB18" t="n">
-        <v>559.1005508864538</v>
+        <v>684.1726715032025</v>
       </c>
       <c r="AC18" t="n">
-        <v>505.7407790124014</v>
+        <v>618.8761919773115</v>
       </c>
       <c r="AD18" t="n">
-        <v>408626.3145488667</v>
+        <v>500036.9912498682</v>
       </c>
       <c r="AE18" t="n">
-        <v>559100.5508864538</v>
+        <v>684172.6715032025</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.307295678795638e-06</v>
+        <v>2.249177647738419e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>505740.7790124014</v>
+        <v>618876.1919773115</v>
       </c>
     </row>
     <row r="19">
@@ -15394,28 +15394,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>405.9510133922253</v>
+        <v>497.3616900932268</v>
       </c>
       <c r="AB19" t="n">
-        <v>555.4400858179798</v>
+        <v>680.5122064347286</v>
       </c>
       <c r="AC19" t="n">
-        <v>502.4296635925676</v>
+        <v>615.5650765574777</v>
       </c>
       <c r="AD19" t="n">
-        <v>405951.0133922253</v>
+        <v>497361.6900932268</v>
       </c>
       <c r="AE19" t="n">
-        <v>555440.0858179798</v>
+        <v>680512.2064347286</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.311100478505117e-06</v>
+        <v>2.255723734136076e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.84201388888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>502429.6635925676</v>
+        <v>615565.0765574777</v>
       </c>
     </row>
     <row r="20">
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>405.7470889388074</v>
+        <v>497.1577656398089</v>
       </c>
       <c r="AB20" t="n">
-        <v>555.1610673843014</v>
+        <v>680.2331880010502</v>
       </c>
       <c r="AC20" t="n">
-        <v>502.1772742865947</v>
+        <v>615.3126872515047</v>
       </c>
       <c r="AD20" t="n">
-        <v>405747.0889388074</v>
+        <v>497157.7656398088</v>
       </c>
       <c r="AE20" t="n">
-        <v>555161.0673843015</v>
+        <v>680233.1880010501</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.31136370364225e-06</v>
+        <v>2.256176608037801e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.84201388888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>502177.2742865947</v>
+        <v>615312.6872515047</v>
       </c>
     </row>
   </sheetData>
@@ -15797,28 +15797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.3976265364257</v>
+        <v>369.8695650281456</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.0713323000083</v>
+        <v>506.071856365088</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.8890858489361</v>
+        <v>457.7730686699145</v>
       </c>
       <c r="AD2" t="n">
-        <v>292397.6265364257</v>
+        <v>369869.5650281456</v>
       </c>
       <c r="AE2" t="n">
-        <v>400071.3323000083</v>
+        <v>506071.856365088</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.479488637916436e-06</v>
+        <v>2.965872250070054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.80555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>361889.0858489361</v>
+        <v>457773.0686699145</v>
       </c>
     </row>
     <row r="3">
@@ -15903,28 +15903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.5628885160774</v>
+        <v>329.5026923794476</v>
       </c>
       <c r="AB3" t="n">
-        <v>356.5136392910473</v>
+        <v>450.8401203464049</v>
       </c>
       <c r="AC3" t="n">
-        <v>322.4884779271444</v>
+        <v>407.8125720186263</v>
       </c>
       <c r="AD3" t="n">
-        <v>260562.8885160774</v>
+        <v>329502.6923794476</v>
       </c>
       <c r="AE3" t="n">
-        <v>356513.6392910473</v>
+        <v>450840.120346405</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.575511350992465e-06</v>
+        <v>3.158365178227788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>322488.4779271444</v>
+        <v>407812.5720186263</v>
       </c>
     </row>
     <row r="4">
@@ -16009,28 +16009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>261.4353285881784</v>
+        <v>330.3751324515486</v>
       </c>
       <c r="AB4" t="n">
-        <v>357.7073502870356</v>
+        <v>452.0338313423932</v>
       </c>
       <c r="AC4" t="n">
-        <v>323.5682628210593</v>
+        <v>408.8923569125413</v>
       </c>
       <c r="AD4" t="n">
-        <v>261435.3285881784</v>
+        <v>330375.1324515486</v>
       </c>
       <c r="AE4" t="n">
-        <v>357707.3502870356</v>
+        <v>452033.8313423932</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.577859654742013e-06</v>
+        <v>3.163072729706743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.75520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>323568.2628210593</v>
+        <v>408892.3569125413</v>
       </c>
     </row>
   </sheetData>
@@ -16306,28 +16306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>602.7111964194369</v>
+        <v>710.4973734063091</v>
       </c>
       <c r="AB2" t="n">
-        <v>824.6560486824505</v>
+        <v>972.1338512264132</v>
       </c>
       <c r="AC2" t="n">
-        <v>745.9520328082303</v>
+        <v>879.3547608637931</v>
       </c>
       <c r="AD2" t="n">
-        <v>602711.1964194368</v>
+        <v>710497.3734063091</v>
       </c>
       <c r="AE2" t="n">
-        <v>824656.0486824505</v>
+        <v>972133.8512264132</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004885913690493e-06</v>
+        <v>1.779727623102835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.49305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>745952.0328082304</v>
+        <v>879354.7608637931</v>
       </c>
     </row>
     <row r="3">
@@ -16412,28 +16412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>480.5848114945711</v>
+        <v>568.8278258473849</v>
       </c>
       <c r="AB3" t="n">
-        <v>657.5573409924008</v>
+        <v>778.2953262369593</v>
       </c>
       <c r="AC3" t="n">
-        <v>594.8009912556097</v>
+        <v>704.015912645254</v>
       </c>
       <c r="AD3" t="n">
-        <v>480584.8114945711</v>
+        <v>568827.825847385</v>
       </c>
       <c r="AE3" t="n">
-        <v>657557.3409924008</v>
+        <v>778295.3262369593</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.192816894875332e-06</v>
+        <v>2.112567355349785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.10763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>594800.9912556097</v>
+        <v>704015.9126452541</v>
       </c>
     </row>
     <row r="4">
@@ -16518,28 +16518,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>444.0157499210572</v>
+        <v>522.5298533841278</v>
       </c>
       <c r="AB4" t="n">
-        <v>607.5219376343844</v>
+        <v>714.9483977903399</v>
       </c>
       <c r="AC4" t="n">
-        <v>549.5408965689527</v>
+        <v>646.7147261416076</v>
       </c>
       <c r="AD4" t="n">
-        <v>444015.7499210573</v>
+        <v>522529.8533841278</v>
       </c>
       <c r="AE4" t="n">
-        <v>607521.9376343844</v>
+        <v>714948.3977903399</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.261953802038777e-06</v>
+        <v>2.235013955285485e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>549540.8965689527</v>
+        <v>646714.7261416076</v>
       </c>
     </row>
     <row r="5">
@@ -16624,28 +16624,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>419.9882117619046</v>
+        <v>508.2311366061674</v>
       </c>
       <c r="AB5" t="n">
-        <v>574.6463999048608</v>
+        <v>695.384262679871</v>
       </c>
       <c r="AC5" t="n">
-        <v>519.8029540192277</v>
+        <v>629.0177646276458</v>
       </c>
       <c r="AD5" t="n">
-        <v>419988.2117619045</v>
+        <v>508231.1366061674</v>
       </c>
       <c r="AE5" t="n">
-        <v>574646.3999048608</v>
+        <v>695384.2626798709</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.299022528801473e-06</v>
+        <v>2.300665424844387e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.62326388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>519802.9540192277</v>
+        <v>629017.7646276457</v>
       </c>
     </row>
     <row r="6">
@@ -16730,28 +16730,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>411.1883337519196</v>
+        <v>489.6170963604186</v>
       </c>
       <c r="AB6" t="n">
-        <v>562.6060185883807</v>
+        <v>669.9157116221386</v>
       </c>
       <c r="AC6" t="n">
-        <v>508.9116897968114</v>
+        <v>605.9798963375274</v>
       </c>
       <c r="AD6" t="n">
-        <v>411188.3337519196</v>
+        <v>489617.0963604186</v>
       </c>
       <c r="AE6" t="n">
-        <v>562606.0185883808</v>
+        <v>669915.7116221386</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.319746186112431e-06</v>
+        <v>2.337368561852822e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.36284722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>508911.6897968114</v>
+        <v>605979.8963375274</v>
       </c>
     </row>
     <row r="7">
@@ -16836,28 +16836,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>403.8804188442712</v>
+        <v>482.3091814527701</v>
       </c>
       <c r="AB7" t="n">
-        <v>552.6070070092844</v>
+        <v>659.9167000430423</v>
       </c>
       <c r="AC7" t="n">
-        <v>499.8669698491232</v>
+        <v>596.9351763898392</v>
       </c>
       <c r="AD7" t="n">
-        <v>403880.4188442712</v>
+        <v>482309.1814527701</v>
       </c>
       <c r="AE7" t="n">
-        <v>552607.0070092845</v>
+        <v>659916.7000430423</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.336364917305371e-06</v>
+        <v>2.366801569681914e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.16319444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>499866.9698491232</v>
+        <v>596935.1763898392</v>
       </c>
     </row>
     <row r="8">
@@ -16942,28 +16942,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>398.0380623136131</v>
+        <v>476.4668249221122</v>
       </c>
       <c r="AB8" t="n">
-        <v>544.6132370574589</v>
+        <v>651.9229300912168</v>
       </c>
       <c r="AC8" t="n">
-        <v>492.6361140821733</v>
+        <v>589.7043206228893</v>
       </c>
       <c r="AD8" t="n">
-        <v>398038.0623136131</v>
+        <v>476466.8249221122</v>
       </c>
       <c r="AE8" t="n">
-        <v>544613.237057459</v>
+        <v>651922.9300912168</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.348231885537456e-06</v>
+        <v>2.387818852218556e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>492636.1140821733</v>
+        <v>589704.3206228893</v>
       </c>
     </row>
     <row r="9">
@@ -17048,28 +17048,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>384.0618733052902</v>
+        <v>472.2194572949816</v>
       </c>
       <c r="AB9" t="n">
-        <v>525.490398670329</v>
+        <v>646.1114943231416</v>
       </c>
       <c r="AC9" t="n">
-        <v>475.3383325516387</v>
+        <v>584.4475201281178</v>
       </c>
       <c r="AD9" t="n">
-        <v>384061.8733052902</v>
+        <v>472219.4572949816</v>
       </c>
       <c r="AE9" t="n">
-        <v>525490.398670329</v>
+        <v>646111.4943231416</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.352336811655472e-06</v>
+        <v>2.395088981397898e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.97222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>475338.3325516387</v>
+        <v>584447.5201281179</v>
       </c>
     </row>
     <row r="10">
@@ -17154,28 +17154,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>379.1663239775187</v>
+        <v>467.3239079672099</v>
       </c>
       <c r="AB10" t="n">
-        <v>518.7920921036786</v>
+        <v>639.4131877564911</v>
       </c>
       <c r="AC10" t="n">
-        <v>469.2793029625771</v>
+        <v>578.3884905390562</v>
       </c>
       <c r="AD10" t="n">
-        <v>379166.3239775187</v>
+        <v>467323.9079672099</v>
       </c>
       <c r="AE10" t="n">
-        <v>518792.0921036786</v>
+        <v>639413.1877564911</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.36072081227227e-06</v>
+        <v>2.409937669479341e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.86805555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>469279.3029625771</v>
+        <v>578388.4905390562</v>
       </c>
     </row>
     <row r="11">
@@ -17260,28 +17260,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>374.3205409856664</v>
+        <v>452.834554940186</v>
       </c>
       <c r="AB11" t="n">
-        <v>512.1618780333685</v>
+        <v>619.5882157197756</v>
       </c>
       <c r="AC11" t="n">
-        <v>463.2818672175734</v>
+        <v>560.4555860090019</v>
       </c>
       <c r="AD11" t="n">
-        <v>374320.5409856663</v>
+        <v>452834.554940186</v>
       </c>
       <c r="AE11" t="n">
-        <v>512161.8780333685</v>
+        <v>619588.2157197755</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.367313572401206e-06</v>
+        <v>2.421613937555254e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>463281.8672175735</v>
+        <v>560455.5860090018</v>
       </c>
     </row>
     <row r="12">
@@ -17366,28 +17366,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>370.2455848981875</v>
+        <v>448.7595988527071</v>
       </c>
       <c r="AB12" t="n">
-        <v>506.5863433401052</v>
+        <v>614.0126810265123</v>
       </c>
       <c r="AC12" t="n">
-        <v>458.2384537301231</v>
+        <v>555.4121725215514</v>
       </c>
       <c r="AD12" t="n">
-        <v>370245.5848981875</v>
+        <v>448759.5988527071</v>
       </c>
       <c r="AE12" t="n">
-        <v>506586.3433401052</v>
+        <v>614012.6810265123</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.371866308641188e-06</v>
+        <v>2.429677171735978e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.73784722222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>458238.4537301231</v>
+        <v>555412.1725215514</v>
       </c>
     </row>
     <row r="13">
@@ -17472,28 +17472,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>366.954043758053</v>
+        <v>445.4680577125726</v>
       </c>
       <c r="AB13" t="n">
-        <v>502.0827115396266</v>
+        <v>609.5090492260338</v>
       </c>
       <c r="AC13" t="n">
-        <v>454.1646422277955</v>
+        <v>551.3383610192237</v>
       </c>
       <c r="AD13" t="n">
-        <v>366954.043758053</v>
+        <v>445468.0577125726</v>
       </c>
       <c r="AE13" t="n">
-        <v>502082.7115396266</v>
+        <v>609509.0492260337</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.375025857835056e-06</v>
+        <v>2.435272968134623e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.703125</v>
       </c>
       <c r="AH13" t="n">
-        <v>454164.6422277954</v>
+        <v>551338.3610192237</v>
       </c>
     </row>
     <row r="14">
@@ -17578,28 +17578,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>367.6916137133002</v>
+        <v>446.2056276678198</v>
       </c>
       <c r="AB14" t="n">
-        <v>503.0918872916857</v>
+        <v>610.5182249780928</v>
       </c>
       <c r="AC14" t="n">
-        <v>455.077503662465</v>
+        <v>552.2512224538932</v>
       </c>
       <c r="AD14" t="n">
-        <v>367691.6137133002</v>
+        <v>446205.6276678198</v>
       </c>
       <c r="AE14" t="n">
-        <v>503091.8872916857</v>
+        <v>610518.2249780928</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.37490146613451e-06</v>
+        <v>2.435052661189795e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.703125</v>
       </c>
       <c r="AH14" t="n">
-        <v>455077.503662465</v>
+        <v>552251.2224538932</v>
       </c>
     </row>
   </sheetData>
@@ -17875,28 +17875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>675.8927335996733</v>
+        <v>795.8336930710094</v>
       </c>
       <c r="AB2" t="n">
-        <v>924.7862563940112</v>
+        <v>1088.894768564375</v>
       </c>
       <c r="AC2" t="n">
-        <v>836.5259540294288</v>
+        <v>984.9721801259967</v>
       </c>
       <c r="AD2" t="n">
-        <v>675892.7335996733</v>
+        <v>795833.6930710094</v>
       </c>
       <c r="AE2" t="n">
-        <v>924786.2563940112</v>
+        <v>1088894.768564375</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.335937839493852e-07</v>
+        <v>1.62810603854132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.66493055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>836525.9540294288</v>
+        <v>984972.1801259967</v>
       </c>
     </row>
     <row r="3">
@@ -17981,28 +17981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.8178393872208</v>
+        <v>618.7544154709057</v>
       </c>
       <c r="AB3" t="n">
-        <v>709.8694564772719</v>
+        <v>846.6070887655422</v>
       </c>
       <c r="AC3" t="n">
-        <v>642.1205118591198</v>
+        <v>765.8080964342701</v>
       </c>
       <c r="AD3" t="n">
-        <v>518817.8393872208</v>
+        <v>618754.4154709056</v>
       </c>
       <c r="AE3" t="n">
-        <v>709869.4564772719</v>
+        <v>846607.0887655423</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.134645521025483e-06</v>
+        <v>1.978722712324317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>642120.5118591198</v>
+        <v>765808.09643427</v>
       </c>
     </row>
     <row r="4">
@@ -18087,28 +18087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>476.470246239704</v>
+        <v>566.3193792835425</v>
       </c>
       <c r="AB4" t="n">
-        <v>651.9276112888837</v>
+        <v>774.8631589834581</v>
       </c>
       <c r="AC4" t="n">
-        <v>589.7085550536209</v>
+        <v>700.91130661735</v>
       </c>
       <c r="AD4" t="n">
-        <v>476470.246239704</v>
+        <v>566319.3792835425</v>
       </c>
       <c r="AE4" t="n">
-        <v>651927.6112888837</v>
+        <v>774863.1589834581</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.209698660993633e-06</v>
+        <v>2.109608834848305e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.49131944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>589708.5550536209</v>
+        <v>700911.30661735</v>
       </c>
     </row>
     <row r="5">
@@ -18193,28 +18193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>449.9489429640542</v>
+        <v>539.8833273539134</v>
       </c>
       <c r="AB5" t="n">
-        <v>615.6399941098163</v>
+        <v>738.69218645704</v>
       </c>
       <c r="AC5" t="n">
-        <v>556.8841771281332</v>
+        <v>668.1924409425743</v>
       </c>
       <c r="AD5" t="n">
-        <v>449948.9429640542</v>
+        <v>539883.3273539133</v>
       </c>
       <c r="AE5" t="n">
-        <v>615639.9941098163</v>
+        <v>738692.1864570399</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.250357523438217e-06</v>
+        <v>2.180514340652141e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>556884.1771281331</v>
+        <v>668192.4409425743</v>
       </c>
     </row>
     <row r="6">
@@ -18299,28 +18299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>440.0219322930267</v>
+        <v>529.9563166828858</v>
       </c>
       <c r="AB6" t="n">
-        <v>602.0574201609144</v>
+        <v>725.1096125081381</v>
       </c>
       <c r="AC6" t="n">
-        <v>544.5979049736522</v>
+        <v>655.9061687880934</v>
       </c>
       <c r="AD6" t="n">
-        <v>440021.9322930267</v>
+        <v>529956.3166828859</v>
       </c>
       <c r="AE6" t="n">
-        <v>602057.4201609144</v>
+        <v>725109.6125081381</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.274148320647998e-06</v>
+        <v>2.222003413592515e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.60590277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>544597.9049736522</v>
+        <v>655906.1687880934</v>
       </c>
     </row>
     <row r="7">
@@ -18405,28 +18405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>432.4835946513503</v>
+        <v>512.4158768559348</v>
       </c>
       <c r="AB7" t="n">
-        <v>591.7431340315875</v>
+        <v>701.1100089073127</v>
       </c>
       <c r="AC7" t="n">
-        <v>535.2679998363169</v>
+        <v>634.1970536712757</v>
       </c>
       <c r="AD7" t="n">
-        <v>432483.5946513503</v>
+        <v>512415.8768559349</v>
       </c>
       <c r="AE7" t="n">
-        <v>591743.1340315875</v>
+        <v>701110.0089073128</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.290943258432362e-06</v>
+        <v>2.251292318567841e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>535267.9998363169</v>
+        <v>634197.0536712757</v>
       </c>
     </row>
     <row r="8">
@@ -18511,28 +18511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>426.8799904702619</v>
+        <v>506.8122726748465</v>
       </c>
       <c r="AB8" t="n">
-        <v>584.0760355774535</v>
+        <v>693.4429104531787</v>
       </c>
       <c r="AC8" t="n">
-        <v>528.332638497805</v>
+        <v>627.2616923327639</v>
       </c>
       <c r="AD8" t="n">
-        <v>426879.9904702619</v>
+        <v>506812.2726748465</v>
       </c>
       <c r="AE8" t="n">
-        <v>584076.0355774534</v>
+        <v>693442.9104531787</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.30179049691428e-06</v>
+        <v>2.270208955308073e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.25868055555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>528332.638497805</v>
+        <v>627261.6923327639</v>
       </c>
     </row>
     <row r="9">
@@ -18617,28 +18617,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>421.3688735587866</v>
+        <v>501.3011557633711</v>
       </c>
       <c r="AB9" t="n">
-        <v>576.5354822858543</v>
+        <v>685.9023571615795</v>
       </c>
       <c r="AC9" t="n">
-        <v>521.5117450291231</v>
+        <v>620.440798864082</v>
       </c>
       <c r="AD9" t="n">
-        <v>421368.8735587866</v>
+        <v>501301.1557633711</v>
       </c>
       <c r="AE9" t="n">
-        <v>576535.4822858543</v>
+        <v>685902.3571615795</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.312881493564331e-06</v>
+        <v>2.289550685008759e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>521511.745029123</v>
+        <v>620440.798864082</v>
       </c>
     </row>
     <row r="10">
@@ -18723,28 +18723,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>417.0633856132864</v>
+        <v>496.9956678178709</v>
       </c>
       <c r="AB10" t="n">
-        <v>570.6445237340984</v>
+        <v>680.0113986098236</v>
       </c>
       <c r="AC10" t="n">
-        <v>516.1830112935344</v>
+        <v>615.1120651284933</v>
       </c>
       <c r="AD10" t="n">
-        <v>417063.3856132863</v>
+        <v>496995.6678178709</v>
       </c>
       <c r="AE10" t="n">
-        <v>570644.5237340983</v>
+        <v>680011.3986098235</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.320072359524255e-06</v>
+        <v>2.302090927342171e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.03298611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>516183.0112935344</v>
+        <v>615112.0651284934</v>
       </c>
     </row>
     <row r="11">
@@ -18829,28 +18829,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>403.4170648401794</v>
+        <v>493.2661083754668</v>
       </c>
       <c r="AB11" t="n">
-        <v>551.9730256191502</v>
+        <v>674.9084508441761</v>
       </c>
       <c r="AC11" t="n">
-        <v>499.2934947530648</v>
+        <v>610.4961355355671</v>
       </c>
       <c r="AD11" t="n">
-        <v>403417.0648401793</v>
+        <v>493266.1083754668</v>
       </c>
       <c r="AE11" t="n">
-        <v>551973.0256191503</v>
+        <v>674908.4508441761</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.322924330091411e-06</v>
+        <v>2.307064514979491e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.99826388888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>499293.4947530648</v>
+        <v>610496.1355355671</v>
       </c>
     </row>
     <row r="12">
@@ -18935,28 +18935,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>398.5711780733989</v>
+        <v>488.4202216086864</v>
       </c>
       <c r="AB12" t="n">
-        <v>545.3426695594053</v>
+        <v>668.2780947844312</v>
       </c>
       <c r="AC12" t="n">
-        <v>493.2959305698987</v>
+        <v>604.4985713524012</v>
       </c>
       <c r="AD12" t="n">
-        <v>398571.1780733989</v>
+        <v>488420.2216086864</v>
       </c>
       <c r="AE12" t="n">
-        <v>545342.6695594053</v>
+        <v>668278.0947844313</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.33074896728848e-06</v>
+        <v>2.320709999010085e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>493295.9305698987</v>
+        <v>604498.5713524012</v>
       </c>
     </row>
     <row r="13">
@@ -19041,28 +19041,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>395.4879911012617</v>
+        <v>485.3370346365492</v>
       </c>
       <c r="AB13" t="n">
-        <v>541.1241171235179</v>
+        <v>664.0595423485439</v>
       </c>
       <c r="AC13" t="n">
-        <v>489.4799908577168</v>
+        <v>600.6826316402193</v>
       </c>
       <c r="AD13" t="n">
-        <v>395487.9911012617</v>
+        <v>485337.0346365492</v>
       </c>
       <c r="AE13" t="n">
-        <v>541124.1171235179</v>
+        <v>664059.5423485439</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.333990950924649e-06</v>
+        <v>2.326363735384132e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH13" t="n">
-        <v>489479.9908577168</v>
+        <v>600682.6316402192</v>
       </c>
     </row>
     <row r="14">
@@ -19147,28 +19147,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>391.462105484755</v>
+        <v>471.4796390353602</v>
       </c>
       <c r="AB14" t="n">
-        <v>535.615722813475</v>
+        <v>645.0992423418495</v>
       </c>
       <c r="AC14" t="n">
-        <v>484.4973099695445</v>
+        <v>583.5318760552157</v>
       </c>
       <c r="AD14" t="n">
-        <v>391462.105484755</v>
+        <v>471479.6390353602</v>
       </c>
       <c r="AE14" t="n">
-        <v>535615.7228134751</v>
+        <v>645099.2423418495</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.338256718866976e-06</v>
+        <v>2.333802862192088e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.80729166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>484497.3099695445</v>
+        <v>583531.8760552157</v>
       </c>
     </row>
     <row r="15">
@@ -19253,28 +19253,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>388.106623678533</v>
+        <v>468.1241572291381</v>
       </c>
       <c r="AB15" t="n">
-        <v>531.0246045727923</v>
+        <v>640.5081241011668</v>
       </c>
       <c r="AC15" t="n">
-        <v>480.3443616100777</v>
+        <v>579.3789276957489</v>
       </c>
       <c r="AD15" t="n">
-        <v>388106.623678533</v>
+        <v>468124.1572291381</v>
       </c>
       <c r="AE15" t="n">
-        <v>531024.6045727923</v>
+        <v>640508.1241011668</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.338110463966097e-06</v>
+        <v>2.333547806415816e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.81597222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>480344.3616100777</v>
+        <v>579378.9276957489</v>
       </c>
     </row>
     <row r="16">
@@ -19359,28 +19359,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>386.7136787607773</v>
+        <v>466.7312123113825</v>
       </c>
       <c r="AB16" t="n">
-        <v>529.1187158839265</v>
+        <v>638.6022354123011</v>
       </c>
       <c r="AC16" t="n">
-        <v>478.6203682627456</v>
+        <v>577.6549343484168</v>
       </c>
       <c r="AD16" t="n">
-        <v>386713.6787607773</v>
+        <v>466731.2123113825</v>
       </c>
       <c r="AE16" t="n">
-        <v>529118.7158839265</v>
+        <v>638602.235412301</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.341254944335012e-06</v>
+        <v>2.339031505605681e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.77256944444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>478620.3682627456</v>
+        <v>577654.9343484167</v>
       </c>
     </row>
     <row r="17">
@@ -19465,28 +19465,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>387.3221725279615</v>
+        <v>467.3397060785667</v>
       </c>
       <c r="AB17" t="n">
-        <v>529.9512839010383</v>
+        <v>639.4348034294129</v>
       </c>
       <c r="AC17" t="n">
-        <v>479.3734771568209</v>
+        <v>578.4080432424921</v>
       </c>
       <c r="AD17" t="n">
-        <v>387322.1725279615</v>
+        <v>467339.7060785667</v>
       </c>
       <c r="AE17" t="n">
-        <v>529951.2839010383</v>
+        <v>639434.8034294129</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.341401199235892e-06</v>
+        <v>2.339286561381954e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.77256944444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>479373.4771568209</v>
+        <v>578408.0432424921</v>
       </c>
     </row>
   </sheetData>
@@ -19762,28 +19762,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>851.3279418955804</v>
+        <v>985.5438789050299</v>
       </c>
       <c r="AB2" t="n">
-        <v>1164.824448039624</v>
+        <v>1348.464614245197</v>
       </c>
       <c r="AC2" t="n">
-        <v>1053.655237560102</v>
+        <v>1219.769044043607</v>
       </c>
       <c r="AD2" t="n">
-        <v>851327.9418955804</v>
+        <v>985543.87890503</v>
       </c>
       <c r="AE2" t="n">
-        <v>1164824.448039624</v>
+        <v>1348464.614245197</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.068727044834877e-07</v>
+        <v>1.371630121020952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1053655.237560102</v>
+        <v>1219769.044043607</v>
       </c>
     </row>
     <row r="3">
@@ -19868,28 +19868,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>609.3977831017909</v>
+        <v>722.9387799549908</v>
       </c>
       <c r="AB3" t="n">
-        <v>833.8049315726325</v>
+        <v>989.1567325424386</v>
       </c>
       <c r="AC3" t="n">
-        <v>754.227759155911</v>
+        <v>894.753002278781</v>
       </c>
       <c r="AD3" t="n">
-        <v>609397.7831017909</v>
+        <v>722938.7799549907</v>
       </c>
       <c r="AE3" t="n">
-        <v>833804.9315726325</v>
+        <v>989156.7325424385</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.029001508444198e-06</v>
+        <v>1.749234365861415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>754227.759155911</v>
+        <v>894753.0022787809</v>
       </c>
     </row>
     <row r="4">
@@ -19974,28 +19974,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>551.8361143712552</v>
+        <v>644.787690939879</v>
       </c>
       <c r="AB4" t="n">
-        <v>755.0465169739139</v>
+        <v>882.2269647692477</v>
       </c>
       <c r="AC4" t="n">
-        <v>682.9859371083651</v>
+        <v>798.0284614649918</v>
       </c>
       <c r="AD4" t="n">
-        <v>551836.1143712553</v>
+        <v>644787.6909398789</v>
       </c>
       <c r="AE4" t="n">
-        <v>755046.5169739139</v>
+        <v>882226.9647692477</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.117137775750291e-06</v>
+        <v>1.899060178929138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH4" t="n">
-        <v>682985.9371083651</v>
+        <v>798028.4614649918</v>
       </c>
     </row>
     <row r="5">
@@ -20080,28 +20080,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>520.5196599464095</v>
+        <v>613.5564878610538</v>
       </c>
       <c r="AB5" t="n">
-        <v>712.1979624453782</v>
+        <v>839.4950548933612</v>
       </c>
       <c r="AC5" t="n">
-        <v>644.2267884857088</v>
+        <v>759.3748250930477</v>
       </c>
       <c r="AD5" t="n">
-        <v>520519.6599464095</v>
+        <v>613556.4878610538</v>
       </c>
       <c r="AE5" t="n">
-        <v>712197.9624453782</v>
+        <v>839495.0548933612</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.16125296560585e-06</v>
+        <v>1.974053077888556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.58680555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>644226.7884857088</v>
+        <v>759374.8250930477</v>
       </c>
     </row>
     <row r="6">
@@ -20186,28 +20186,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>508.4165307044246</v>
+        <v>601.2827664184766</v>
       </c>
       <c r="AB6" t="n">
-        <v>695.6379270641166</v>
+        <v>822.7016077372527</v>
       </c>
       <c r="AC6" t="n">
-        <v>629.2472196390793</v>
+        <v>744.1841209637672</v>
       </c>
       <c r="AD6" t="n">
-        <v>508416.5307044247</v>
+        <v>601282.7664184766</v>
       </c>
       <c r="AE6" t="n">
-        <v>695637.9270641167</v>
+        <v>822701.6077372527</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.187486798506623e-06</v>
+        <v>2.018648855136423e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.19618055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>629247.2196390793</v>
+        <v>744184.1209637672</v>
       </c>
     </row>
     <row r="7">
@@ -20292,28 +20292,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>487.8444568077778</v>
+        <v>580.7959438678505</v>
       </c>
       <c r="AB7" t="n">
-        <v>667.4903079828778</v>
+        <v>794.6706333086631</v>
       </c>
       <c r="AC7" t="n">
-        <v>603.7859698175222</v>
+        <v>718.8283833929223</v>
       </c>
       <c r="AD7" t="n">
-        <v>487844.4568077778</v>
+        <v>580795.9438678505</v>
       </c>
       <c r="AE7" t="n">
-        <v>667490.3079828777</v>
+        <v>794670.6333086631</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.209509101282518e-06</v>
+        <v>2.056085310296965e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.88368055555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>603785.9698175222</v>
+        <v>718828.3833929223</v>
       </c>
     </row>
     <row r="8">
@@ -20398,28 +20398,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>481.2297715111251</v>
+        <v>574.1812585711978</v>
       </c>
       <c r="AB8" t="n">
-        <v>658.4398037406778</v>
+        <v>785.6201290664632</v>
       </c>
       <c r="AC8" t="n">
-        <v>595.5992329977355</v>
+        <v>710.6416465731354</v>
       </c>
       <c r="AD8" t="n">
-        <v>481229.7715111251</v>
+        <v>574181.2585711977</v>
       </c>
       <c r="AE8" t="n">
-        <v>658439.8037406778</v>
+        <v>785620.1290664632</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.223202456213683e-06</v>
+        <v>2.079363106133968e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>595599.2329977355</v>
+        <v>710641.6465731354</v>
       </c>
     </row>
     <row r="9">
@@ -20504,28 +20504,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>475.0905611938243</v>
+        <v>568.0420482538968</v>
       </c>
       <c r="AB9" t="n">
-        <v>650.0398653417027</v>
+        <v>777.2201906674882</v>
       </c>
       <c r="AC9" t="n">
-        <v>588.000972930171</v>
+        <v>703.043386505571</v>
       </c>
       <c r="AD9" t="n">
-        <v>475090.5611938243</v>
+        <v>568042.0482538969</v>
       </c>
       <c r="AE9" t="n">
-        <v>650039.8653417027</v>
+        <v>777220.1906674881</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.235225315955651e-06</v>
+        <v>2.099801170863708e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.53645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>588000.9729301709</v>
+        <v>703043.386505571</v>
       </c>
     </row>
     <row r="10">
@@ -20610,28 +20610,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>470.6735730355999</v>
+        <v>553.2877242803743</v>
       </c>
       <c r="AB10" t="n">
-        <v>643.9963472798555</v>
+        <v>757.0326736920799</v>
       </c>
       <c r="AC10" t="n">
-        <v>582.5342397500154</v>
+        <v>684.7825378169377</v>
       </c>
       <c r="AD10" t="n">
-        <v>470673.5730356</v>
+        <v>553287.7242803742</v>
       </c>
       <c r="AE10" t="n">
-        <v>643996.3472798555</v>
+        <v>757032.67369208</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.242966061268973e-06</v>
+        <v>2.112959924867787e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.43229166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>582534.2397500154</v>
+        <v>684782.5378169378</v>
       </c>
     </row>
     <row r="11">
@@ -20716,28 +20716,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>467.2442324185797</v>
+        <v>549.8583836633539</v>
       </c>
       <c r="AB11" t="n">
-        <v>639.3041721558179</v>
+        <v>752.3404985680424</v>
       </c>
       <c r="AC11" t="n">
-        <v>578.289879234307</v>
+        <v>680.5381773012292</v>
       </c>
       <c r="AD11" t="n">
-        <v>467244.2324185796</v>
+        <v>549858.383663354</v>
       </c>
       <c r="AE11" t="n">
-        <v>639304.172155818</v>
+        <v>752340.4985680424</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.249271592405661e-06</v>
+        <v>2.123678909892387e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.34548611111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>578289.879234307</v>
+        <v>680538.1773012292</v>
       </c>
     </row>
     <row r="12">
@@ -20822,28 +20822,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>463.66779191637</v>
+        <v>546.2819431611443</v>
       </c>
       <c r="AB12" t="n">
-        <v>634.4107284792755</v>
+        <v>747.4470548915</v>
       </c>
       <c r="AC12" t="n">
-        <v>573.8634589542623</v>
+        <v>676.1117570211848</v>
       </c>
       <c r="AD12" t="n">
-        <v>463667.79191637</v>
+        <v>546281.9431611444</v>
       </c>
       <c r="AE12" t="n">
-        <v>634410.7284792755</v>
+        <v>747447.0548915</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.253506650631795e-06</v>
+        <v>2.130878228192491e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.29340277777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>573863.4589542623</v>
+        <v>676111.7570211848</v>
       </c>
     </row>
     <row r="13">
@@ -20928,28 +20928,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>459.4602575352141</v>
+        <v>542.0744087799883</v>
       </c>
       <c r="AB13" t="n">
-        <v>628.6537943156616</v>
+        <v>741.6901207278862</v>
       </c>
       <c r="AC13" t="n">
-        <v>568.655958507316</v>
+        <v>670.9042565742382</v>
       </c>
       <c r="AD13" t="n">
-        <v>459460.2575352141</v>
+        <v>542074.4087799883</v>
       </c>
       <c r="AE13" t="n">
-        <v>628653.7943156615</v>
+        <v>741690.1207278862</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.261365036451399e-06</v>
+        <v>2.144236963260462e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.18923611111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>568655.958507316</v>
+        <v>670904.2565742382</v>
       </c>
     </row>
     <row r="14">
@@ -21034,28 +21034,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>455.7615625804399</v>
+        <v>538.3757138252142</v>
       </c>
       <c r="AB14" t="n">
-        <v>623.5930767036344</v>
+        <v>736.6294031158592</v>
       </c>
       <c r="AC14" t="n">
-        <v>564.078228681419</v>
+        <v>666.3265267483413</v>
       </c>
       <c r="AD14" t="n">
-        <v>455761.56258044</v>
+        <v>538375.7138252142</v>
       </c>
       <c r="AE14" t="n">
-        <v>623593.0767036345</v>
+        <v>736629.4031158591</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.265694207082557e-06</v>
+        <v>2.15159626641168e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.13715277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>564078.2286814189</v>
+        <v>666326.5267483413</v>
       </c>
     </row>
     <row r="15">
@@ -21140,28 +21140,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>453.070899050244</v>
+        <v>535.6850502950184</v>
       </c>
       <c r="AB15" t="n">
-        <v>619.9115921579231</v>
+        <v>732.9479185701479</v>
       </c>
       <c r="AC15" t="n">
-        <v>560.7480998537543</v>
+        <v>662.9963979206765</v>
       </c>
       <c r="AD15" t="n">
-        <v>453070.899050244</v>
+        <v>535685.0502950184</v>
       </c>
       <c r="AE15" t="n">
-        <v>619911.5921579232</v>
+        <v>732947.9185701478</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.26891755695467e-06</v>
+        <v>2.157075747562314e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH15" t="n">
-        <v>560748.0998537543</v>
+        <v>662996.3979206765</v>
       </c>
     </row>
     <row r="16">
@@ -21246,28 +21246,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>450.8671320663996</v>
+        <v>533.4812833111738</v>
       </c>
       <c r="AB16" t="n">
-        <v>616.8963009472894</v>
+        <v>729.9326273595141</v>
       </c>
       <c r="AC16" t="n">
-        <v>558.0205838042757</v>
+        <v>660.2688818711981</v>
       </c>
       <c r="AD16" t="n">
-        <v>450867.1320663996</v>
+        <v>533481.2833111738</v>
       </c>
       <c r="AE16" t="n">
-        <v>616896.3009472894</v>
+        <v>729932.6273595141</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.269929265308691e-06</v>
+        <v>2.158795584711784e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>16.08506944444444</v>
       </c>
       <c r="AH16" t="n">
-        <v>558020.5838042757</v>
+        <v>660268.8818711981</v>
       </c>
     </row>
     <row r="17">
@@ -21352,28 +21352,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>448.5970498938127</v>
+        <v>531.2112011385869</v>
       </c>
       <c r="AB17" t="n">
-        <v>613.7902743697988</v>
+        <v>726.8266007820233</v>
       </c>
       <c r="AC17" t="n">
-        <v>555.210992044005</v>
+        <v>657.4592901109273</v>
       </c>
       <c r="AD17" t="n">
-        <v>448597.0498938126</v>
+        <v>531211.201138587</v>
       </c>
       <c r="AE17" t="n">
-        <v>613790.2743697988</v>
+        <v>726826.6007820233</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.273693761509699e-06</v>
+        <v>2.165194978756321e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>16.03298611111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>555210.9920440051</v>
+        <v>657459.2901109273</v>
       </c>
     </row>
     <row r="18">
@@ -21458,28 +21458,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>434.163744246682</v>
+        <v>527.0298904521831</v>
       </c>
       <c r="AB18" t="n">
-        <v>594.0419888308893</v>
+        <v>721.1055470344771</v>
       </c>
       <c r="AC18" t="n">
-        <v>537.3474551600362</v>
+        <v>652.2842457034974</v>
       </c>
       <c r="AD18" t="n">
-        <v>434163.744246682</v>
+        <v>527029.8904521831</v>
       </c>
       <c r="AE18" t="n">
-        <v>594041.9888308893</v>
+        <v>721105.5470344771</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.277458257710707e-06</v>
+        <v>2.171594372800858e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>537347.4551600362</v>
+        <v>652284.2457034974</v>
       </c>
     </row>
     <row r="19">
@@ -21564,28 +21564,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>433.825342282557</v>
+        <v>526.691488488058</v>
       </c>
       <c r="AB19" t="n">
-        <v>593.5789723343323</v>
+        <v>720.64253053792</v>
       </c>
       <c r="AC19" t="n">
-        <v>536.928628308063</v>
+        <v>651.8654188515243</v>
       </c>
       <c r="AD19" t="n">
-        <v>433825.342282557</v>
+        <v>526691.488488058</v>
       </c>
       <c r="AE19" t="n">
-        <v>593578.9723343323</v>
+        <v>720642.5305379201</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.277152392394375e-06</v>
+        <v>2.171074422034739e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>536928.628308063</v>
+        <v>651865.4188515242</v>
       </c>
     </row>
     <row r="20">
@@ -21670,28 +21670,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>429.3892233818399</v>
+        <v>522.255369587341</v>
       </c>
       <c r="AB20" t="n">
-        <v>587.5092787466177</v>
+        <v>714.5728369502056</v>
       </c>
       <c r="AC20" t="n">
-        <v>531.4382177574914</v>
+        <v>646.3750083009526</v>
       </c>
       <c r="AD20" t="n">
-        <v>429389.2233818399</v>
+        <v>522255.3695873409</v>
       </c>
       <c r="AE20" t="n">
-        <v>587509.2787466177</v>
+        <v>714572.8369502055</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.281011001000408e-06</v>
+        <v>2.17763380093039e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.94618055555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>531438.2177574914</v>
+        <v>646375.0083009526</v>
       </c>
     </row>
     <row r="21">
@@ -21776,28 +21776,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>428.420798592415</v>
+        <v>521.2869447979159</v>
       </c>
       <c r="AB21" t="n">
-        <v>586.1842372258402</v>
+        <v>713.2477954294279</v>
       </c>
       <c r="AC21" t="n">
-        <v>530.2396363397494</v>
+        <v>645.1764268832106</v>
       </c>
       <c r="AD21" t="n">
-        <v>428420.798592415</v>
+        <v>521286.9447979159</v>
       </c>
       <c r="AE21" t="n">
-        <v>586184.2372258402</v>
+        <v>713247.7954294279</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.281552147329302e-06</v>
+        <v>2.178553713824292e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH21" t="n">
-        <v>530239.6363397493</v>
+        <v>645176.4268832107</v>
       </c>
     </row>
     <row r="22">
@@ -21882,28 +21882,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>425.363703548165</v>
+        <v>518.2298497536658</v>
       </c>
       <c r="AB22" t="n">
-        <v>582.0013849167825</v>
+        <v>709.0649431203701</v>
       </c>
       <c r="AC22" t="n">
-        <v>526.455989584398</v>
+        <v>641.3927801278592</v>
       </c>
       <c r="AD22" t="n">
-        <v>425363.703548165</v>
+        <v>518229.8497536659</v>
       </c>
       <c r="AE22" t="n">
-        <v>582001.3849167825</v>
+        <v>709064.9431203702</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.280799248089101e-06</v>
+        <v>2.177273835015384e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>15.94618055555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>526455.989584398</v>
+        <v>641392.7801278592</v>
       </c>
     </row>
     <row r="23">
@@ -21988,28 +21988,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>423.6133019114943</v>
+        <v>516.4794481169953</v>
       </c>
       <c r="AB23" t="n">
-        <v>579.6064081752196</v>
+        <v>706.6699663788073</v>
       </c>
       <c r="AC23" t="n">
-        <v>524.289586061679</v>
+        <v>639.2263766051403</v>
       </c>
       <c r="AD23" t="n">
-        <v>423613.3019114943</v>
+        <v>516479.4481169953</v>
       </c>
       <c r="AE23" t="n">
-        <v>579606.4081752195</v>
+        <v>706669.9663788073</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.284775497201415e-06</v>
+        <v>2.184033194974927e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>15.89409722222222</v>
       </c>
       <c r="AH23" t="n">
-        <v>524289.5860616789</v>
+        <v>639226.3766051403</v>
       </c>
     </row>
     <row r="24">
@@ -22094,28 +22094,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>424.6616211545759</v>
+        <v>517.5277673600768</v>
       </c>
       <c r="AB24" t="n">
-        <v>581.0407648121849</v>
+        <v>708.1043230157725</v>
       </c>
       <c r="AC24" t="n">
-        <v>525.5870497143443</v>
+        <v>640.5238402578055</v>
       </c>
       <c r="AD24" t="n">
-        <v>424661.6211545759</v>
+        <v>517527.7673600769</v>
       </c>
       <c r="AE24" t="n">
-        <v>581040.7648121848</v>
+        <v>708104.3230157725</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.284610800492621e-06</v>
+        <v>2.183753221485478e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH24" t="n">
-        <v>525587.0497143443</v>
+        <v>640523.8402578055</v>
       </c>
     </row>
   </sheetData>
@@ -22391,28 +22391,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>532.3716292387776</v>
+        <v>628.367841504297</v>
       </c>
       <c r="AB2" t="n">
-        <v>728.4143497031787</v>
+        <v>859.7606023788525</v>
       </c>
       <c r="AC2" t="n">
-        <v>658.8955065034675</v>
+        <v>777.706257169398</v>
       </c>
       <c r="AD2" t="n">
-        <v>532371.6292387776</v>
+        <v>628367.841504297</v>
       </c>
       <c r="AE2" t="n">
-        <v>728414.3497031787</v>
+        <v>859760.6023788524</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.08499395731888e-06</v>
+        <v>1.956500857953578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.36458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>658895.5065034674</v>
+        <v>777706.257169398</v>
       </c>
     </row>
     <row r="3">
@@ -22497,28 +22497,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.0261023561615</v>
+        <v>518.4994196065473</v>
       </c>
       <c r="AB3" t="n">
-        <v>591.1171728901745</v>
+        <v>709.433780485665</v>
       </c>
       <c r="AC3" t="n">
-        <v>534.7017795476984</v>
+        <v>641.726416172677</v>
       </c>
       <c r="AD3" t="n">
-        <v>432026.1023561615</v>
+        <v>518499.4196065473</v>
       </c>
       <c r="AE3" t="n">
-        <v>591117.1728901746</v>
+        <v>709433.780485665</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258538010267787e-06</v>
+        <v>2.269441852875164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>534701.7795476983</v>
+        <v>641726.416172677</v>
       </c>
     </row>
     <row r="4">
@@ -22603,28 +22603,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.0287358209894</v>
+        <v>487.4167122168037</v>
       </c>
       <c r="AB4" t="n">
-        <v>548.7052084894545</v>
+        <v>666.9050489627474</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.3375535038172</v>
+        <v>603.256567096857</v>
       </c>
       <c r="AD4" t="n">
-        <v>401028.7358209894</v>
+        <v>487416.7122168037</v>
       </c>
       <c r="AE4" t="n">
-        <v>548705.2084894546</v>
+        <v>666905.0489627474</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.319118069818741e-06</v>
+        <v>2.37868203590734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.75347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>496337.5535038172</v>
+        <v>603256.567096857</v>
       </c>
     </row>
     <row r="5">
@@ -22709,28 +22709,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>388.341147813819</v>
+        <v>465.1210673570304</v>
       </c>
       <c r="AB5" t="n">
-        <v>531.3454908411653</v>
+        <v>636.3991640511744</v>
       </c>
       <c r="AC5" t="n">
-        <v>480.634622943364</v>
+        <v>575.662121025966</v>
       </c>
       <c r="AD5" t="n">
-        <v>388341.147813819</v>
+        <v>465121.0673570303</v>
       </c>
       <c r="AE5" t="n">
-        <v>531345.4908411653</v>
+        <v>636399.1640511743</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.354677037546758e-06</v>
+        <v>2.442803269393032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.31076388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>480634.622943364</v>
+        <v>575662.121025966</v>
       </c>
     </row>
     <row r="6">
@@ -22815,28 +22815,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>380.6707182145809</v>
+        <v>457.4506377577923</v>
       </c>
       <c r="AB6" t="n">
-        <v>520.8504706680166</v>
+        <v>625.9041438780257</v>
       </c>
       <c r="AC6" t="n">
-        <v>471.1412327656872</v>
+        <v>566.1687308482893</v>
       </c>
       <c r="AD6" t="n">
-        <v>380670.7182145809</v>
+        <v>457450.6377577923</v>
       </c>
       <c r="AE6" t="n">
-        <v>520850.4706680166</v>
+        <v>625904.1438780257</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.372952870638181e-06</v>
+        <v>2.475758921248958e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH6" t="n">
-        <v>471141.2327656872</v>
+        <v>566168.7308482893</v>
       </c>
     </row>
     <row r="7">
@@ -22921,28 +22921,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>364.4207715633623</v>
+        <v>450.723407104605</v>
       </c>
       <c r="AB7" t="n">
-        <v>498.6165767627691</v>
+        <v>616.6996501138643</v>
       </c>
       <c r="AC7" t="n">
-        <v>451.0293104892904</v>
+        <v>557.8427010503914</v>
       </c>
       <c r="AD7" t="n">
-        <v>364420.7715633623</v>
+        <v>450723.407104605</v>
       </c>
       <c r="AE7" t="n">
-        <v>498616.5767627691</v>
+        <v>616699.6501138643</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.386112488616266e-06</v>
+        <v>2.499488826554686e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH7" t="n">
-        <v>451029.3104892905</v>
+        <v>557842.7010503914</v>
       </c>
     </row>
     <row r="8">
@@ -23027,28 +23027,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>358.8364223009437</v>
+        <v>435.7015931901756</v>
       </c>
       <c r="AB8" t="n">
-        <v>490.9758237378261</v>
+        <v>596.1461416004843</v>
       </c>
       <c r="AC8" t="n">
-        <v>444.1177802091838</v>
+        <v>539.2507905424981</v>
       </c>
       <c r="AD8" t="n">
-        <v>358836.4223009437</v>
+        <v>435701.5931901756</v>
       </c>
       <c r="AE8" t="n">
-        <v>490975.8237378261</v>
+        <v>596146.1416004843</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.395301312775045e-06</v>
+        <v>2.516058450955785e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>444117.7802091838</v>
+        <v>539250.7905424981</v>
       </c>
     </row>
     <row r="9">
@@ -23133,28 +23133,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>353.2962193337854</v>
+        <v>430.1613902230172</v>
       </c>
       <c r="AB9" t="n">
-        <v>483.3954736216551</v>
+        <v>588.5657914843134</v>
       </c>
       <c r="AC9" t="n">
-        <v>437.260888069012</v>
+        <v>532.3938984023263</v>
       </c>
       <c r="AD9" t="n">
-        <v>353296.2193337854</v>
+        <v>430161.3902230172</v>
       </c>
       <c r="AE9" t="n">
-        <v>483395.4736216551</v>
+        <v>588565.7914843134</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.403293808026725e-06</v>
+        <v>2.530470811238182e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.74652777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>437260.888069012</v>
+        <v>532393.8984023263</v>
       </c>
     </row>
     <row r="10">
@@ -23239,28 +23239,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>348.0552307310433</v>
+        <v>424.9204016202752</v>
       </c>
       <c r="AB10" t="n">
-        <v>476.2245217992847</v>
+        <v>581.394839661943</v>
       </c>
       <c r="AC10" t="n">
-        <v>430.7743218240744</v>
+        <v>525.9073321573889</v>
       </c>
       <c r="AD10" t="n">
-        <v>348055.2307310433</v>
+        <v>424920.4016202752</v>
       </c>
       <c r="AE10" t="n">
-        <v>476224.5217992847</v>
+        <v>581394.839661943</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410039066758239e-06</v>
+        <v>2.542634108928739e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.66840277777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>430774.3218240744</v>
+        <v>525907.3321573888</v>
       </c>
     </row>
     <row r="11">
@@ -23345,28 +23345,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>346.5690725590161</v>
+        <v>423.434243448248</v>
       </c>
       <c r="AB11" t="n">
-        <v>474.191094623646</v>
+        <v>579.3614124863043</v>
       </c>
       <c r="AC11" t="n">
-        <v>428.9349620841457</v>
+        <v>524.0679724174601</v>
       </c>
       <c r="AD11" t="n">
-        <v>346569.0725590162</v>
+        <v>423434.243448248</v>
       </c>
       <c r="AE11" t="n">
-        <v>474191.094623646</v>
+        <v>579361.4124863043</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.412100825087494e-06</v>
+        <v>2.546351947090758e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>428934.9620841457</v>
+        <v>524067.9724174601</v>
       </c>
     </row>
   </sheetData>
@@ -23642,28 +23642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>428.3663615174346</v>
+        <v>520.7982256576254</v>
       </c>
       <c r="AB2" t="n">
-        <v>586.1097540182577</v>
+        <v>712.5791083409154</v>
       </c>
       <c r="AC2" t="n">
-        <v>530.1722617049606</v>
+        <v>644.5715583519177</v>
       </c>
       <c r="AD2" t="n">
-        <v>428366.3615174346</v>
+        <v>520798.2256576254</v>
       </c>
       <c r="AE2" t="n">
-        <v>586109.7540182577</v>
+        <v>712579.1083409154</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.223799975450885e-06</v>
+        <v>2.283219575416569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.81076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>530172.2617049606</v>
+        <v>644571.5583519177</v>
       </c>
     </row>
     <row r="3">
@@ -23748,28 +23748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.6653298621855</v>
+        <v>446.8454735029001</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.5829480994834</v>
+        <v>611.3936902776557</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.0943298949217</v>
+        <v>553.0431345739891</v>
       </c>
       <c r="AD3" t="n">
-        <v>363665.3298621855</v>
+        <v>446845.4735029001</v>
       </c>
       <c r="AE3" t="n">
-        <v>497582.9480994834</v>
+        <v>611393.6902776556</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.370318708970722e-06</v>
+        <v>2.55657669851545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>450094.3298949217</v>
+        <v>553043.1345739891</v>
       </c>
     </row>
     <row r="4">
@@ -23854,28 +23854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.7051842589962</v>
+        <v>421.6336969087856</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.7455727732696</v>
+        <v>576.8978252765046</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.3410830208929</v>
+        <v>521.8395065132972</v>
       </c>
       <c r="AD4" t="n">
-        <v>347705.1842589962</v>
+        <v>421633.6969087856</v>
       </c>
       <c r="AE4" t="n">
-        <v>475745.5727732696</v>
+        <v>576897.8252765046</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.421252926685454e-06</v>
+        <v>2.651603668018336e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>430341.0830208929</v>
+        <v>521839.5065132973</v>
       </c>
     </row>
     <row r="5">
@@ -23960,28 +23960,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.6758757938236</v>
+        <v>410.7706785799666</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.3405893004945</v>
+        <v>562.0345643564691</v>
       </c>
       <c r="AC5" t="n">
-        <v>405.5515927076237</v>
+        <v>508.3947743547522</v>
       </c>
       <c r="AD5" t="n">
-        <v>327675.8757938236</v>
+        <v>410770.6785799665</v>
       </c>
       <c r="AE5" t="n">
-        <v>448340.5893004945</v>
+        <v>562034.5643564691</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.450524856074867e-06</v>
+        <v>2.706215731699329e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.86805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>405551.5927076237</v>
+        <v>508394.7743547522</v>
       </c>
     </row>
     <row r="6">
@@ -24066,28 +24066,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>320.0438682268473</v>
+        <v>394.0576322226573</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.8981398469468</v>
+        <v>539.1670370028312</v>
       </c>
       <c r="AC6" t="n">
-        <v>396.1057559738527</v>
+        <v>487.7096917169694</v>
       </c>
       <c r="AD6" t="n">
-        <v>320043.8682268473</v>
+        <v>394057.6322226573</v>
       </c>
       <c r="AE6" t="n">
-        <v>437898.1398469468</v>
+        <v>539167.0370028312</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.466619114353286e-06</v>
+        <v>2.736242473234078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>396105.7559738527</v>
+        <v>487709.6917169694</v>
       </c>
     </row>
     <row r="7">
@@ -24172,28 +24172,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>314.8969046706525</v>
+        <v>388.9106686664624</v>
       </c>
       <c r="AB7" t="n">
-        <v>430.8558372413545</v>
+        <v>532.1247343972389</v>
       </c>
       <c r="AC7" t="n">
-        <v>389.7355608450044</v>
+        <v>481.3394965881209</v>
       </c>
       <c r="AD7" t="n">
-        <v>314896.9046706525</v>
+        <v>388910.6686664624</v>
       </c>
       <c r="AE7" t="n">
-        <v>430855.8372413545</v>
+        <v>532124.7343972388</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.473990125558229e-06</v>
+        <v>2.749994424052298e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.61631944444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>389735.5608450044</v>
+        <v>481339.4965881209</v>
       </c>
     </row>
     <row r="8">
@@ -24278,28 +24278,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>315.8473472864247</v>
+        <v>389.8611112822347</v>
       </c>
       <c r="AB8" t="n">
-        <v>432.1562747588231</v>
+        <v>533.4251719147074</v>
       </c>
       <c r="AC8" t="n">
-        <v>390.9118864309812</v>
+        <v>482.5158221740978</v>
       </c>
       <c r="AD8" t="n">
-        <v>315847.3472864247</v>
+        <v>389861.1112822347</v>
       </c>
       <c r="AE8" t="n">
-        <v>432156.2747588231</v>
+        <v>533425.1719147074</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.474865101708456e-06</v>
+        <v>2.75162684986885e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.60763888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>390911.8864309812</v>
+        <v>482515.8221740978</v>
       </c>
     </row>
   </sheetData>
@@ -45540,28 +45540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.6597594244968</v>
+        <v>453.1573041802806</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.5753263808874</v>
+        <v>620.0298154687644</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.0874355824514</v>
+        <v>560.8550400977364</v>
       </c>
       <c r="AD2" t="n">
-        <v>363659.7594244968</v>
+        <v>453157.3041802806</v>
       </c>
       <c r="AE2" t="n">
-        <v>497575.3263808874</v>
+        <v>620029.8154687644</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.332669518310502e-06</v>
+        <v>2.562772903904781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.86458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>450087.4355824514</v>
+        <v>560855.0400977364</v>
       </c>
     </row>
     <row r="3">
@@ -45646,28 +45646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.5292353717477</v>
+        <v>392.1785651976687</v>
       </c>
       <c r="AB3" t="n">
-        <v>438.5622405874866</v>
+        <v>536.5960146006553</v>
       </c>
       <c r="AC3" t="n">
-        <v>396.7064758717867</v>
+        <v>485.3840440844045</v>
       </c>
       <c r="AD3" t="n">
-        <v>320529.2353717477</v>
+        <v>392178.5651976687</v>
       </c>
       <c r="AE3" t="n">
-        <v>438562.2405874866</v>
+        <v>536596.0146006553</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.461800334401015e-06</v>
+        <v>2.81109625188337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.28472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>396706.4758717867</v>
+        <v>485384.0440844045</v>
       </c>
     </row>
     <row r="4">
@@ -45752,28 +45752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>297.8492619370298</v>
+        <v>369.5838431089714</v>
       </c>
       <c r="AB4" t="n">
-        <v>407.5305003642944</v>
+        <v>505.6809190301122</v>
       </c>
       <c r="AC4" t="n">
-        <v>368.6363613821749</v>
+        <v>457.419441845505</v>
       </c>
       <c r="AD4" t="n">
-        <v>297849.2619370298</v>
+        <v>369583.8431089714</v>
       </c>
       <c r="AE4" t="n">
-        <v>407530.5003642944</v>
+        <v>505680.9190301123</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.505081648715125e-06</v>
+        <v>2.894327824336687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.81597222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>368636.3613821749</v>
+        <v>457419.441845505</v>
       </c>
     </row>
     <row r="5">
@@ -45858,28 +45858,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>290.6548529842909</v>
+        <v>362.3894341562325</v>
       </c>
       <c r="AB5" t="n">
-        <v>397.6867926402346</v>
+        <v>495.8372113060525</v>
       </c>
       <c r="AC5" t="n">
-        <v>359.7321233075688</v>
+        <v>448.515203770899</v>
       </c>
       <c r="AD5" t="n">
-        <v>290654.8529842909</v>
+        <v>362389.4341562325</v>
       </c>
       <c r="AE5" t="n">
-        <v>397686.7926402346</v>
+        <v>495837.2113060525</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.52118185879268e-06</v>
+        <v>2.925289125369702e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>359732.1233075688</v>
+        <v>448515.203770899</v>
       </c>
     </row>
     <row r="6">
@@ -45964,28 +45964,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>291.7457336783293</v>
+        <v>363.4803148502709</v>
       </c>
       <c r="AB6" t="n">
-        <v>399.1793837320776</v>
+        <v>497.3298023978955</v>
       </c>
       <c r="AC6" t="n">
-        <v>361.0822636004711</v>
+        <v>449.8653440638012</v>
       </c>
       <c r="AD6" t="n">
-        <v>291745.7336783293</v>
+        <v>363480.3148502709</v>
       </c>
       <c r="AE6" t="n">
-        <v>399179.3837320775</v>
+        <v>497329.8023978955</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.521977269512014e-06</v>
+        <v>2.92681872967968e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.64236111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>361082.2636004711</v>
+        <v>449865.3440638012</v>
       </c>
     </row>
   </sheetData>
@@ -46261,28 +46261,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.9448781280337</v>
+        <v>324.0761607828374</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.5633178626065</v>
+        <v>443.415300414245</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.01060822812</v>
+        <v>401.0963664799915</v>
       </c>
       <c r="AD2" t="n">
-        <v>256944.8781280337</v>
+        <v>324076.1607828374</v>
       </c>
       <c r="AE2" t="n">
-        <v>351563.3178626065</v>
+        <v>443415.300414245</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569104876310996e-06</v>
+        <v>3.236434653026031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.28472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>318010.60822812</v>
+        <v>401096.3664799915</v>
       </c>
     </row>
     <row r="3">
@@ -46367,28 +46367,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.1179633032839</v>
+        <v>317.5658823450674</v>
       </c>
       <c r="AB3" t="n">
-        <v>331.2764788820772</v>
+        <v>434.5076502424738</v>
       </c>
       <c r="AC3" t="n">
-        <v>299.6599166871286</v>
+        <v>393.0388499386486</v>
       </c>
       <c r="AD3" t="n">
-        <v>242117.9633032839</v>
+        <v>317565.8823450674</v>
       </c>
       <c r="AE3" t="n">
-        <v>331276.4788820772</v>
+        <v>434507.6502424738</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.603047540095664e-06</v>
+        <v>3.30644476831353e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>299659.9166871286</v>
+        <v>393038.8499386486</v>
       </c>
     </row>
   </sheetData>
@@ -46664,28 +46664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>644.7256763420673</v>
+        <v>753.6529106681081</v>
       </c>
       <c r="AB2" t="n">
-        <v>882.1421136606309</v>
+        <v>1031.181161195941</v>
       </c>
       <c r="AC2" t="n">
-        <v>797.9517084270921</v>
+        <v>932.7666784432491</v>
       </c>
       <c r="AD2" t="n">
-        <v>644725.6763420673</v>
+        <v>753652.9106681081</v>
       </c>
       <c r="AE2" t="n">
-        <v>882142.1136606309</v>
+        <v>1031181.161195941</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.67114367248156e-07</v>
+        <v>1.699181792744348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.10069444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>797951.7084270921</v>
+        <v>932766.6784432491</v>
       </c>
     </row>
     <row r="3">
@@ -46770,28 +46770,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>499.8755673196815</v>
+        <v>588.9823497053475</v>
       </c>
       <c r="AB3" t="n">
-        <v>683.9518041603999</v>
+        <v>805.8716349342626</v>
       </c>
       <c r="AC3" t="n">
-        <v>618.6764039037167</v>
+        <v>728.9603771440792</v>
       </c>
       <c r="AD3" t="n">
-        <v>499875.5673196815</v>
+        <v>588982.3497053474</v>
       </c>
       <c r="AE3" t="n">
-        <v>683951.8041603999</v>
+        <v>805871.6349342626</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162688955070353e-06</v>
+        <v>2.042798628565469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.37673611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>618676.4039037167</v>
+        <v>728960.3771440792</v>
       </c>
     </row>
     <row r="4">
@@ -46876,28 +46876,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>460.4533876666611</v>
+        <v>549.4748291977553</v>
       </c>
       <c r="AB4" t="n">
-        <v>630.0126387753166</v>
+        <v>751.8157024269817</v>
       </c>
       <c r="AC4" t="n">
-        <v>569.8851167588916</v>
+        <v>680.0634669673154</v>
       </c>
       <c r="AD4" t="n">
-        <v>460453.3876666611</v>
+        <v>549474.8291977553</v>
       </c>
       <c r="AE4" t="n">
-        <v>630012.6387753166</v>
+        <v>751815.7024269818</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.234995420885281e-06</v>
+        <v>2.169838236673052e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.30034722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>569885.1167588916</v>
+        <v>680063.4669673154</v>
       </c>
     </row>
     <row r="5">
@@ -46982,28 +46982,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>435.4340699383569</v>
+        <v>524.5407628154718</v>
       </c>
       <c r="AB5" t="n">
-        <v>595.780104485053</v>
+        <v>717.6998127893675</v>
       </c>
       <c r="AC5" t="n">
-        <v>538.9196874956272</v>
+        <v>649.2035499547632</v>
       </c>
       <c r="AD5" t="n">
-        <v>435434.0699383569</v>
+        <v>524540.7628154717</v>
       </c>
       <c r="AE5" t="n">
-        <v>595780.104485053</v>
+        <v>717699.8127893675</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.272835066087033e-06</v>
+        <v>2.236321000602692e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.78819444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>538919.6874956272</v>
+        <v>649203.5499547631</v>
       </c>
     </row>
     <row r="6">
@@ -47088,28 +47088,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>426.0721841614954</v>
+        <v>505.268740576974</v>
       </c>
       <c r="AB6" t="n">
-        <v>582.9707593479001</v>
+        <v>691.3309817410393</v>
       </c>
       <c r="AC6" t="n">
-        <v>527.3328482803353</v>
+        <v>625.3513231328006</v>
       </c>
       <c r="AD6" t="n">
-        <v>426072.1841614954</v>
+        <v>505268.740576974</v>
       </c>
       <c r="AE6" t="n">
-        <v>582970.7593479</v>
+        <v>691330.9817410393</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.296026312528185e-06</v>
+        <v>2.277067105756707e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.49305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>527332.8482803353</v>
+        <v>625351.3231328006</v>
       </c>
     </row>
     <row r="7">
@@ -47194,28 +47194,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>418.1395755388298</v>
+        <v>497.3361319543083</v>
       </c>
       <c r="AB7" t="n">
-        <v>572.1170142683754</v>
+        <v>680.4772366615148</v>
       </c>
       <c r="AC7" t="n">
-        <v>517.5149693978736</v>
+        <v>615.5334442503389</v>
       </c>
       <c r="AD7" t="n">
-        <v>418139.5755388298</v>
+        <v>497336.1319543082</v>
       </c>
       <c r="AE7" t="n">
-        <v>572117.0142683755</v>
+        <v>680477.2366615147</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.314022916719779e-06</v>
+        <v>2.308686429395332e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.26736111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>517514.9693978737</v>
+        <v>615533.4442503389</v>
       </c>
     </row>
     <row r="8">
@@ -47300,28 +47300,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>412.9850208228492</v>
+        <v>492.1815772383277</v>
       </c>
       <c r="AB8" t="n">
-        <v>565.064325103066</v>
+        <v>673.4245474962052</v>
       </c>
       <c r="AC8" t="n">
-        <v>511.1353789879899</v>
+        <v>609.1538538404552</v>
       </c>
       <c r="AD8" t="n">
-        <v>412985.0208228491</v>
+        <v>492181.5772383277</v>
       </c>
       <c r="AE8" t="n">
-        <v>565064.325103066</v>
+        <v>673424.5474962052</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.323501292388403e-06</v>
+        <v>2.325339561544266e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>511135.3789879899</v>
+        <v>609153.8538404552</v>
       </c>
     </row>
     <row r="9">
@@ -47406,28 +47406,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>407.2100709226854</v>
+        <v>486.406627338164</v>
       </c>
       <c r="AB9" t="n">
-        <v>557.1627838768534</v>
+        <v>665.5230062699927</v>
       </c>
       <c r="AC9" t="n">
-        <v>503.9879497665243</v>
+        <v>602.0064246189897</v>
       </c>
       <c r="AD9" t="n">
-        <v>407210.0709226854</v>
+        <v>486406.627338164</v>
       </c>
       <c r="AE9" t="n">
-        <v>557162.7838768534</v>
+        <v>665523.0062699927</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.334875343190751e-06</v>
+        <v>2.345323320122987e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.00694444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>503987.9497665243</v>
+        <v>602006.4246189897</v>
       </c>
     </row>
     <row r="10">
@@ -47512,28 +47512,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>392.3016951625866</v>
+        <v>481.32304718513</v>
       </c>
       <c r="AB10" t="n">
-        <v>536.7644864507666</v>
+        <v>658.5674276328834</v>
       </c>
       <c r="AC10" t="n">
-        <v>485.5364372175931</v>
+        <v>595.7146766447902</v>
       </c>
       <c r="AD10" t="n">
-        <v>392301.6951625866</v>
+        <v>481323.04718513</v>
       </c>
       <c r="AE10" t="n">
-        <v>536764.4864507667</v>
+        <v>658567.4276328834</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.341965660574033e-06</v>
+        <v>2.357780728068164e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.92881944444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>485536.4372175931</v>
+        <v>595714.6766447902</v>
       </c>
     </row>
     <row r="11">
@@ -47618,28 +47618,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>389.3693107387618</v>
+        <v>478.3906627613051</v>
       </c>
       <c r="AB11" t="n">
-        <v>532.7522687144191</v>
+        <v>654.5552098965359</v>
       </c>
       <c r="AC11" t="n">
-        <v>481.9071399108195</v>
+        <v>592.0853793380167</v>
       </c>
       <c r="AD11" t="n">
-        <v>389369.3107387618</v>
+        <v>478390.6627613051</v>
       </c>
       <c r="AE11" t="n">
-        <v>532752.2687144191</v>
+        <v>654555.2098965358</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.345436961792931e-06</v>
+        <v>2.363879667374656e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>481907.1399108195</v>
+        <v>592085.3793380166</v>
       </c>
     </row>
     <row r="12">
@@ -47724,28 +47724,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>385.8492492873725</v>
+        <v>474.8706013099156</v>
       </c>
       <c r="AB12" t="n">
-        <v>527.9359653424771</v>
+        <v>649.7389065245937</v>
       </c>
       <c r="AC12" t="n">
-        <v>477.5504977729714</v>
+        <v>587.7287372001684</v>
       </c>
       <c r="AD12" t="n">
-        <v>385849.2492873725</v>
+        <v>474870.6013099157</v>
       </c>
       <c r="AE12" t="n">
-        <v>527935.9653424771</v>
+        <v>649738.9065245937</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.34745573271456e-06</v>
+        <v>2.367426568247936e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH12" t="n">
-        <v>477550.4977729714</v>
+        <v>587728.7372001684</v>
       </c>
     </row>
     <row r="13">
@@ -47830,28 +47830,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>380.8917909949101</v>
+        <v>460.1735987564092</v>
       </c>
       <c r="AB13" t="n">
-        <v>521.1529521991059</v>
+        <v>629.6298192448943</v>
       </c>
       <c r="AC13" t="n">
-        <v>471.4148458839847</v>
+        <v>569.5388329871623</v>
       </c>
       <c r="AD13" t="n">
-        <v>380891.7909949101</v>
+        <v>460173.5987564092</v>
       </c>
       <c r="AE13" t="n">
-        <v>521152.9521991059</v>
+        <v>629629.8192448943</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.353068900642992e-06</v>
+        <v>2.377288682871201e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.79861111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>471414.8458839847</v>
+        <v>569538.8329871623</v>
       </c>
     </row>
     <row r="14">
@@ -47936,28 +47936,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>377.9474011599909</v>
+        <v>457.22920892149</v>
       </c>
       <c r="AB14" t="n">
-        <v>517.1243081296575</v>
+        <v>625.6011751754461</v>
       </c>
       <c r="AC14" t="n">
-        <v>467.7706899502871</v>
+        <v>565.8946770534648</v>
       </c>
       <c r="AD14" t="n">
-        <v>377947.4011599909</v>
+        <v>457229.20892149</v>
       </c>
       <c r="AE14" t="n">
-        <v>517124.3081296575</v>
+        <v>625601.1751754461</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.356515582704309e-06</v>
+        <v>2.383344367288995e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.75520833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>467770.6899502871</v>
+        <v>565894.6770534648</v>
       </c>
     </row>
     <row r="15">
@@ -48042,28 +48042,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>375.8005455599026</v>
+        <v>455.0823533214017</v>
       </c>
       <c r="AB15" t="n">
-        <v>514.1868855850322</v>
+        <v>622.6637526308207</v>
       </c>
       <c r="AC15" t="n">
-        <v>465.1136108906225</v>
+        <v>563.2375979937999</v>
       </c>
       <c r="AD15" t="n">
-        <v>375800.5455599026</v>
+        <v>455082.3533214018</v>
       </c>
       <c r="AE15" t="n">
-        <v>514186.8855850322</v>
+        <v>622663.7526308207</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.359100594250298e-06</v>
+        <v>2.38788613060234e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.72048611111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>465113.6108906225</v>
+        <v>563237.5979938</v>
       </c>
     </row>
   </sheetData>
@@ -48339,28 +48339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>801.7637874345801</v>
+        <v>935.0312346214107</v>
       </c>
       <c r="AB2" t="n">
-        <v>1097.008585289912</v>
+        <v>1279.35098587576</v>
       </c>
       <c r="AC2" t="n">
-        <v>992.3116255710617</v>
+        <v>1157.251523364163</v>
       </c>
       <c r="AD2" t="n">
-        <v>801763.78743458</v>
+        <v>935031.2346214107</v>
       </c>
       <c r="AE2" t="n">
-        <v>1097008.585289912</v>
+        <v>1279350.98587576</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.37284202850044e-07</v>
+        <v>1.431662677916277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.59201388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>992311.6255710616</v>
+        <v>1157251.523364163</v>
       </c>
     </row>
     <row r="3">
@@ -48445,28 +48445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>589.167235338352</v>
+        <v>691.7463030625076</v>
       </c>
       <c r="AB3" t="n">
-        <v>806.1246036139182</v>
+        <v>946.477809543184</v>
       </c>
       <c r="AC3" t="n">
-        <v>729.1892028479921</v>
+        <v>856.1472957903308</v>
       </c>
       <c r="AD3" t="n">
-        <v>589167.235338352</v>
+        <v>691746.3030625076</v>
       </c>
       <c r="AE3" t="n">
-        <v>806124.6036139182</v>
+        <v>946477.809543184</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.053621568497327e-06</v>
+        <v>1.801575464018862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.54861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>729189.2028479921</v>
+        <v>856147.2957903307</v>
       </c>
     </row>
     <row r="4">
@@ -48551,28 +48551,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>536.1724990949631</v>
+        <v>628.4084087006826</v>
       </c>
       <c r="AB4" t="n">
-        <v>733.6148675229554</v>
+        <v>859.8161082066456</v>
       </c>
       <c r="AC4" t="n">
-        <v>663.5996942014971</v>
+        <v>777.7564655988896</v>
       </c>
       <c r="AD4" t="n">
-        <v>536172.4990949631</v>
+        <v>628408.4087006826</v>
       </c>
       <c r="AE4" t="n">
-        <v>733614.8675229554</v>
+        <v>859816.1082066456</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.137034462193548e-06</v>
+        <v>1.94420221650671e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.10763888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>663599.6942014971</v>
+        <v>777756.4655988896</v>
       </c>
     </row>
     <row r="5">
@@ -48657,28 +48657,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>506.3863235385328</v>
+        <v>598.5368922896806</v>
       </c>
       <c r="AB5" t="n">
-        <v>692.8601080533246</v>
+        <v>818.944581614817</v>
       </c>
       <c r="AC5" t="n">
-        <v>626.7345117759837</v>
+        <v>740.7856601414373</v>
       </c>
       <c r="AD5" t="n">
-        <v>506386.3235385328</v>
+        <v>598536.8922896807</v>
       </c>
       <c r="AE5" t="n">
-        <v>692860.1080533245</v>
+        <v>818944.581614817</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.180045718243392e-06</v>
+        <v>2.017746671074534e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.44791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>626734.5117759837</v>
+        <v>740785.6601414373</v>
       </c>
     </row>
     <row r="6">
@@ -48763,28 +48763,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>481.6453276444903</v>
+        <v>573.8811477416587</v>
       </c>
       <c r="AB6" t="n">
-        <v>659.0083859753906</v>
+        <v>785.2095041895324</v>
       </c>
       <c r="AC6" t="n">
-        <v>596.1135505419774</v>
+        <v>710.2702111581435</v>
       </c>
       <c r="AD6" t="n">
-        <v>481645.3276444903</v>
+        <v>573881.1477416586</v>
       </c>
       <c r="AE6" t="n">
-        <v>659008.3859753907</v>
+        <v>785209.5041895324</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.212262643624356e-06</v>
+        <v>2.072834023144641e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.98784722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>596113.5505419774</v>
+        <v>710270.2111581435</v>
       </c>
     </row>
     <row r="7">
@@ -48869,28 +48869,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>474.2572374203618</v>
+        <v>566.4930575175302</v>
       </c>
       <c r="AB7" t="n">
-        <v>648.8996749912011</v>
+        <v>775.1007932053429</v>
       </c>
       <c r="AC7" t="n">
-        <v>586.9696007464539</v>
+        <v>701.12626136262</v>
       </c>
       <c r="AD7" t="n">
-        <v>474257.2374203618</v>
+        <v>566493.0575175303</v>
       </c>
       <c r="AE7" t="n">
-        <v>648899.6749912011</v>
+        <v>775100.793205343</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.228323658707502e-06</v>
+        <v>2.100296569058827e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.76215277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>586969.600746454</v>
+        <v>701126.2613626199</v>
       </c>
     </row>
     <row r="8">
@@ -48975,28 +48975,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>467.4512373525458</v>
+        <v>559.6870574497143</v>
       </c>
       <c r="AB8" t="n">
-        <v>639.5874054388837</v>
+        <v>765.7885236530253</v>
       </c>
       <c r="AC8" t="n">
-        <v>578.5460811303573</v>
+        <v>692.7027417465232</v>
       </c>
       <c r="AD8" t="n">
-        <v>467451.2373525458</v>
+        <v>559687.0574497143</v>
       </c>
       <c r="AE8" t="n">
-        <v>639587.4054388837</v>
+        <v>765788.5236530253</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.242795178944901e-06</v>
+        <v>2.125041255923897e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.57118055555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>578546.0811303572</v>
+        <v>692702.7417465232</v>
       </c>
     </row>
     <row r="9">
@@ -49081,28 +49081,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>461.488664380652</v>
+        <v>543.4666672139559</v>
       </c>
       <c r="AB9" t="n">
-        <v>631.429150048584</v>
+        <v>743.5950701393476</v>
       </c>
       <c r="AC9" t="n">
-        <v>571.1664381843244</v>
+        <v>672.6274002874831</v>
       </c>
       <c r="AD9" t="n">
-        <v>461488.664380652</v>
+        <v>543466.6672139559</v>
       </c>
       <c r="AE9" t="n">
-        <v>631429.150048584</v>
+        <v>743595.0701393476</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.254728252189839e-06</v>
+        <v>2.145445481322471e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.41493055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>571166.4381843244</v>
+        <v>672627.400287483</v>
       </c>
     </row>
     <row r="10">
@@ -49187,28 +49187,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>457.40169059339</v>
+        <v>539.379693426694</v>
       </c>
       <c r="AB10" t="n">
-        <v>625.8371722082941</v>
+        <v>738.0030922990576</v>
       </c>
       <c r="AC10" t="n">
-        <v>566.1081508607215</v>
+        <v>667.5691129638802</v>
       </c>
       <c r="AD10" t="n">
-        <v>457401.69059339</v>
+        <v>539379.6934266939</v>
       </c>
       <c r="AE10" t="n">
-        <v>625837.172208294</v>
+        <v>738003.0922990576</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.261726774271859e-06</v>
+        <v>2.15741217415066e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.31944444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>566108.1508607215</v>
+        <v>667569.1129638802</v>
       </c>
     </row>
     <row r="11">
@@ -49293,28 +49293,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>453.2273589635472</v>
+        <v>535.2053617968512</v>
       </c>
       <c r="AB11" t="n">
-        <v>620.1256675138287</v>
+        <v>732.2915876045923</v>
       </c>
       <c r="AC11" t="n">
-        <v>560.941744158149</v>
+        <v>662.4027062613076</v>
       </c>
       <c r="AD11" t="n">
-        <v>453227.3589635472</v>
+        <v>535205.3617968512</v>
       </c>
       <c r="AE11" t="n">
-        <v>620125.6675138287</v>
+        <v>732291.5876045923</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.26806102985118e-06</v>
+        <v>2.168243045286684e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.24131944444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>560941.744158149</v>
+        <v>662402.7062613076</v>
       </c>
     </row>
     <row r="12">
@@ -49399,28 +49399,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>449.9319905022528</v>
+        <v>531.9099933355568</v>
       </c>
       <c r="AB12" t="n">
-        <v>615.6167990036899</v>
+        <v>727.7827190944533</v>
       </c>
       <c r="AC12" t="n">
-        <v>556.863195730381</v>
+        <v>658.3241578335395</v>
       </c>
       <c r="AD12" t="n">
-        <v>449931.9905022528</v>
+        <v>531909.9933355568</v>
       </c>
       <c r="AE12" t="n">
-        <v>615616.7990036899</v>
+        <v>727782.7190944534</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.2737310189278e-06</v>
+        <v>2.177938094730539e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH12" t="n">
-        <v>556863.1957303809</v>
+        <v>658324.1578335395</v>
       </c>
     </row>
     <row r="13">
@@ -49505,28 +49505,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>446.9729835544921</v>
+        <v>528.950986387796</v>
       </c>
       <c r="AB13" t="n">
-        <v>611.5681551555903</v>
+        <v>723.7340752463539</v>
       </c>
       <c r="AC13" t="n">
-        <v>553.2009487688367</v>
+        <v>654.6619108719951</v>
       </c>
       <c r="AD13" t="n">
-        <v>446972.9835544921</v>
+        <v>528950.986387796</v>
       </c>
       <c r="AE13" t="n">
-        <v>611568.1551555903</v>
+        <v>723734.0752463539</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.277147246655973e-06</v>
+        <v>2.183779463433113e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.12847222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>553200.9487688367</v>
+        <v>654661.9108719951</v>
       </c>
     </row>
     <row r="14">
@@ -49611,28 +49611,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>444.1140528509794</v>
+        <v>526.0920556842834</v>
       </c>
       <c r="AB14" t="n">
-        <v>607.656440039923</v>
+        <v>719.8223601306867</v>
       </c>
       <c r="AC14" t="n">
-        <v>549.6625622536822</v>
+        <v>651.1235243568408</v>
       </c>
       <c r="AD14" t="n">
-        <v>444114.0528509794</v>
+        <v>526092.0556842834</v>
       </c>
       <c r="AE14" t="n">
-        <v>607656.4400399231</v>
+        <v>719822.3601306867</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.280041550703453e-06</v>
+        <v>2.188728400806127e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>16.08506944444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>549662.5622536822</v>
+        <v>651123.5243568408</v>
       </c>
     </row>
     <row r="15">
@@ -49717,28 +49717,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>440.5668517463134</v>
+        <v>522.5448545796174</v>
       </c>
       <c r="AB15" t="n">
-        <v>602.8030029970511</v>
+        <v>714.9689230878146</v>
       </c>
       <c r="AC15" t="n">
-        <v>545.2723304303402</v>
+        <v>646.7332925334987</v>
       </c>
       <c r="AD15" t="n">
-        <v>440566.8517463134</v>
+        <v>522544.8545796174</v>
       </c>
       <c r="AE15" t="n">
-        <v>602803.0029970511</v>
+        <v>714968.9230878146</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.284667692418687e-06</v>
+        <v>2.196638587590862e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16.03298611111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>545272.3304303401</v>
+        <v>646733.2925334987</v>
       </c>
     </row>
     <row r="16">
@@ -49823,28 +49823,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>426.9356510092037</v>
+        <v>519.0861302518005</v>
       </c>
       <c r="AB16" t="n">
-        <v>584.1521927824032</v>
+        <v>710.2365438743474</v>
       </c>
       <c r="AC16" t="n">
-        <v>528.4015273660017</v>
+        <v>642.4525649502289</v>
       </c>
       <c r="AD16" t="n">
-        <v>426935.6510092037</v>
+        <v>519086.1302518005</v>
       </c>
       <c r="AE16" t="n">
-        <v>584152.1927824032</v>
+        <v>710236.5438743473</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.288273710576203e-06</v>
+        <v>2.202804476776913e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>528401.5273660017</v>
+        <v>642452.5649502289</v>
       </c>
     </row>
     <row r="17">
@@ -49929,28 +49929,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>424.5658401938933</v>
+        <v>516.7163194364902</v>
       </c>
       <c r="AB17" t="n">
-        <v>580.9097130762211</v>
+        <v>706.9940641681652</v>
       </c>
       <c r="AC17" t="n">
-        <v>525.4685053721288</v>
+        <v>639.519542956356</v>
       </c>
       <c r="AD17" t="n">
-        <v>424565.8401938933</v>
+        <v>516716.3194364902</v>
       </c>
       <c r="AE17" t="n">
-        <v>580909.7130762212</v>
+        <v>706994.0641681652</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.288297434379871e-06</v>
+        <v>2.202845041837347e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.98090277777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>525468.5053721288</v>
+        <v>639519.542956356</v>
       </c>
     </row>
     <row r="18">
@@ -50035,28 +50035,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>422.3163655769612</v>
+        <v>514.4668448195581</v>
       </c>
       <c r="AB18" t="n">
-        <v>577.8318826655187</v>
+        <v>703.9162337574628</v>
       </c>
       <c r="AC18" t="n">
-        <v>522.6844187760616</v>
+        <v>636.7354563602887</v>
       </c>
       <c r="AD18" t="n">
-        <v>422316.3655769613</v>
+        <v>514466.8448195581</v>
       </c>
       <c r="AE18" t="n">
-        <v>577831.8826655187</v>
+        <v>703916.2337574628</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.292235585788737e-06</v>
+        <v>2.209578841869481e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH18" t="n">
-        <v>522684.4187760616</v>
+        <v>636735.4563602887</v>
       </c>
     </row>
     <row r="19">
@@ -50141,28 +50141,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>419.3653939442652</v>
+        <v>511.5158731868621</v>
       </c>
       <c r="AB19" t="n">
-        <v>573.7942330899837</v>
+        <v>699.8785841819279</v>
       </c>
       <c r="AC19" t="n">
-        <v>519.032116809139</v>
+        <v>633.083154393366</v>
       </c>
       <c r="AD19" t="n">
-        <v>419365.3939442653</v>
+        <v>511515.8731868621</v>
       </c>
       <c r="AE19" t="n">
-        <v>573794.2330899837</v>
+        <v>699878.5841819278</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.291476424071365e-06</v>
+        <v>2.208280759935576e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.94618055555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>519032.116809139</v>
+        <v>633083.1543933661</v>
       </c>
     </row>
     <row r="20">
@@ -50247,28 +50247,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>416.9370993050115</v>
+        <v>509.0875785476085</v>
       </c>
       <c r="AB20" t="n">
-        <v>570.4717332357582</v>
+        <v>696.5560843277021</v>
       </c>
       <c r="AC20" t="n">
-        <v>516.0267116778429</v>
+        <v>630.0777492620699</v>
       </c>
       <c r="AD20" t="n">
-        <v>416937.0993050116</v>
+        <v>509087.5785476085</v>
       </c>
       <c r="AE20" t="n">
-        <v>570471.7332357581</v>
+        <v>696556.0843277022</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.296577041859957e-06</v>
+        <v>2.217002247929002e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>516026.7116778429</v>
+        <v>630077.7492620699</v>
       </c>
     </row>
     <row r="21">
@@ -50353,28 +50353,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>414.2274681332025</v>
+        <v>506.3779473757993</v>
       </c>
       <c r="AB21" t="n">
-        <v>566.7642963259985</v>
+        <v>692.8486474179425</v>
       </c>
       <c r="AC21" t="n">
-        <v>512.6731073433301</v>
+        <v>626.7241449275573</v>
       </c>
       <c r="AD21" t="n">
-        <v>414227.4681332025</v>
+        <v>506377.9473757993</v>
       </c>
       <c r="AE21" t="n">
-        <v>566764.2963259985</v>
+        <v>692848.6474179425</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.296102565786599e-06</v>
+        <v>2.216190946720312e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>512673.1073433302</v>
+        <v>626724.1449275573</v>
       </c>
     </row>
     <row r="22">
@@ -50459,28 +50459,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>414.3959015503129</v>
+        <v>506.5463807929098</v>
       </c>
       <c r="AB22" t="n">
-        <v>566.9947543580467</v>
+        <v>693.0791054499908</v>
       </c>
       <c r="AC22" t="n">
-        <v>512.8815707842499</v>
+        <v>626.9326083684768</v>
       </c>
       <c r="AD22" t="n">
-        <v>414395.9015503129</v>
+        <v>506546.3807929098</v>
       </c>
       <c r="AE22" t="n">
-        <v>566994.7543580468</v>
+        <v>693079.1054499908</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.296055118179264e-06</v>
+        <v>2.216109816599443e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>512881.5707842499</v>
+        <v>626932.6083684769</v>
       </c>
     </row>
   </sheetData>
@@ -50756,28 +50756,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.147328647071</v>
+        <v>290.1655050350312</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.0565078538974</v>
+        <v>397.0172451875497</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.6560271044368</v>
+        <v>359.1264765240525</v>
       </c>
       <c r="AD2" t="n">
-        <v>225147.328647071</v>
+        <v>290165.5050350312</v>
       </c>
       <c r="AE2" t="n">
-        <v>308056.5078538974</v>
+        <v>397017.2451875497</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.612831490197405e-06</v>
+        <v>3.457040738293301e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>278656.0271044368</v>
+        <v>359126.4765240524</v>
       </c>
     </row>
   </sheetData>
@@ -51053,28 +51053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>466.3208320800636</v>
+        <v>559.9326796302653</v>
       </c>
       <c r="AB2" t="n">
-        <v>638.0407350751125</v>
+        <v>766.1245947565411</v>
       </c>
       <c r="AC2" t="n">
-        <v>577.1470228153389</v>
+        <v>693.0067386955982</v>
       </c>
       <c r="AD2" t="n">
-        <v>466320.8320800636</v>
+        <v>559932.6796302653</v>
       </c>
       <c r="AE2" t="n">
-        <v>638040.7350751124</v>
+        <v>766124.5947565411</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.173093109724562e-06</v>
+        <v>2.161344912062891e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.33159722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>577147.0228153389</v>
+        <v>693006.7386955982</v>
       </c>
     </row>
     <row r="3">
@@ -51159,28 +51159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>392.9301059908744</v>
+        <v>467.9561473000606</v>
       </c>
       <c r="AB3" t="n">
-        <v>537.6243058695591</v>
+        <v>640.278245504128</v>
       </c>
       <c r="AC3" t="n">
-        <v>486.31419667782</v>
+        <v>579.1709883893749</v>
       </c>
       <c r="AD3" t="n">
-        <v>392930.1059908744</v>
+        <v>467956.1473000606</v>
       </c>
       <c r="AE3" t="n">
-        <v>537624.3058695591</v>
+        <v>640278.245504128</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.330958238883006e-06</v>
+        <v>2.452200762182807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.03993055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>486314.1966778199</v>
+        <v>579170.9883893749</v>
       </c>
     </row>
     <row r="4">
@@ -51265,28 +51265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>365.594435038825</v>
+        <v>440.5351354934395</v>
       </c>
       <c r="AB4" t="n">
-        <v>500.2224349082755</v>
+        <v>602.7596074206466</v>
       </c>
       <c r="AC4" t="n">
-        <v>452.4819077872256</v>
+        <v>545.2330764668418</v>
       </c>
       <c r="AD4" t="n">
-        <v>365594.435038825</v>
+        <v>440535.1354934395</v>
       </c>
       <c r="AE4" t="n">
-        <v>500222.4349082755</v>
+        <v>602759.6074206466</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.386558535945099e-06</v>
+        <v>2.554640558451457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>452481.9077872256</v>
+        <v>545233.0764668417</v>
       </c>
     </row>
     <row r="5">
@@ -51371,28 +51371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.0002934802243</v>
+        <v>429.9409939348388</v>
       </c>
       <c r="AB5" t="n">
-        <v>485.7270630472584</v>
+        <v>588.2642355596297</v>
       </c>
       <c r="AC5" t="n">
-        <v>439.3699538722419</v>
+        <v>532.121122551858</v>
       </c>
       <c r="AD5" t="n">
-        <v>355000.2934802243</v>
+        <v>429940.9939348389</v>
       </c>
       <c r="AE5" t="n">
-        <v>485727.0630472584</v>
+        <v>588264.2355596297</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.416501177126095e-06</v>
+        <v>2.609807854750269e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>439369.9538722419</v>
+        <v>532121.122551858</v>
       </c>
     </row>
     <row r="6">
@@ -51477,28 +51477,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>338.0235814884082</v>
+        <v>413.0495332890433</v>
       </c>
       <c r="AB6" t="n">
-        <v>462.4987767403816</v>
+        <v>565.1525939054021</v>
       </c>
       <c r="AC6" t="n">
-        <v>418.3585426093888</v>
+        <v>511.2152235397171</v>
       </c>
       <c r="AD6" t="n">
-        <v>338023.5814884082</v>
+        <v>413049.5332890433</v>
       </c>
       <c r="AE6" t="n">
-        <v>462498.7767403816</v>
+        <v>565152.5939054021</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.432987919347044e-06</v>
+        <v>2.64018356501602e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.82465277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>418358.5426093888</v>
+        <v>511215.2235397171</v>
       </c>
     </row>
     <row r="7">
@@ -51583,28 +51583,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>331.2858237879671</v>
+        <v>406.3117755886022</v>
       </c>
       <c r="AB7" t="n">
-        <v>453.2798794057471</v>
+        <v>555.9336965707676</v>
       </c>
       <c r="AC7" t="n">
-        <v>410.0194838975681</v>
+        <v>502.8761648278965</v>
       </c>
       <c r="AD7" t="n">
-        <v>331285.8237879671</v>
+        <v>406311.7755886022</v>
       </c>
       <c r="AE7" t="n">
-        <v>453279.8794057471</v>
+        <v>555933.6965707676</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.445477083818699e-06</v>
+        <v>2.663194007974861e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>410019.4838975681</v>
+        <v>502876.1648278965</v>
       </c>
     </row>
     <row r="8">
@@ -51689,28 +51689,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>326.2188441016286</v>
+        <v>401.2447959022638</v>
       </c>
       <c r="AB8" t="n">
-        <v>446.3470142595316</v>
+        <v>549.0008314245523</v>
       </c>
       <c r="AC8" t="n">
-        <v>403.7482816705701</v>
+        <v>496.6049626008985</v>
       </c>
       <c r="AD8" t="n">
-        <v>326218.8441016286</v>
+        <v>401244.7959022638</v>
       </c>
       <c r="AE8" t="n">
-        <v>446347.0142595316</v>
+        <v>549000.8314245522</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.452009073605129e-06</v>
+        <v>2.675228758476347e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.61631944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>403748.2816705701</v>
+        <v>496604.9626008985</v>
       </c>
     </row>
     <row r="9">
@@ -51795,28 +51795,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>326.8639455731207</v>
+        <v>401.8898973737558</v>
       </c>
       <c r="AB9" t="n">
-        <v>447.2296705526954</v>
+        <v>549.883487717716</v>
       </c>
       <c r="AC9" t="n">
-        <v>404.5466984859303</v>
+        <v>497.4033794162586</v>
       </c>
       <c r="AD9" t="n">
-        <v>326863.9455731207</v>
+        <v>401889.8973737558</v>
       </c>
       <c r="AE9" t="n">
-        <v>447229.6705526954</v>
+        <v>549883.487717716</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.451773921972818e-06</v>
+        <v>2.674795507458294e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH9" t="n">
-        <v>404546.6984859303</v>
+        <v>497403.3794162586</v>
       </c>
     </row>
   </sheetData>
@@ -52092,28 +52092,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>563.4358914980352</v>
+        <v>670.2019572933896</v>
       </c>
       <c r="AB2" t="n">
-        <v>770.9178437848237</v>
+        <v>916.9998851924224</v>
       </c>
       <c r="AC2" t="n">
-        <v>697.3425267639886</v>
+        <v>829.482703167079</v>
       </c>
       <c r="AD2" t="n">
-        <v>563435.8914980352</v>
+        <v>670201.9572933896</v>
       </c>
       <c r="AE2" t="n">
-        <v>770917.8437848238</v>
+        <v>916999.8851924224</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042021424396995e-06</v>
+        <v>1.861495229753358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.95486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>697342.5267639887</v>
+        <v>829482.703167079</v>
       </c>
     </row>
     <row r="3">
@@ -52198,28 +52198,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.9716797137146</v>
+        <v>548.9386404135952</v>
       </c>
       <c r="AB3" t="n">
-        <v>618.4075917675491</v>
+        <v>751.0820652775138</v>
       </c>
       <c r="AC3" t="n">
-        <v>559.3876391497597</v>
+        <v>679.3998471177265</v>
       </c>
       <c r="AD3" t="n">
-        <v>451971.6797137146</v>
+        <v>548938.6404135951</v>
       </c>
       <c r="AE3" t="n">
-        <v>618407.591767549</v>
+        <v>751082.0652775138</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.223217386059153e-06</v>
+        <v>2.185188591893073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.85590277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>559387.6391497597</v>
+        <v>679399.8471177265</v>
       </c>
     </row>
     <row r="4">
@@ -52304,28 +52304,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.7843036825891</v>
+        <v>505.1228409961388</v>
       </c>
       <c r="AB4" t="n">
-        <v>571.6309156411789</v>
+        <v>691.1313554979055</v>
       </c>
       <c r="AC4" t="n">
-        <v>517.075263341413</v>
+        <v>625.1707489381342</v>
       </c>
       <c r="AD4" t="n">
-        <v>417784.3036825891</v>
+        <v>505122.8409961388</v>
       </c>
       <c r="AE4" t="n">
-        <v>571630.915641179</v>
+        <v>691131.3554979055</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.289552767275745e-06</v>
+        <v>2.303691909394452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.93576388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>517075.263341413</v>
+        <v>625170.7489381343</v>
       </c>
     </row>
     <row r="5">
@@ -52410,28 +52410,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>404.9696326245971</v>
+        <v>482.5944952057955</v>
       </c>
       <c r="AB5" t="n">
-        <v>554.097317356247</v>
+        <v>660.307078907086</v>
       </c>
       <c r="AC5" t="n">
-        <v>501.2150470682353</v>
+        <v>597.2882980429987</v>
       </c>
       <c r="AD5" t="n">
-        <v>404969.6326245971</v>
+        <v>482594.4952057955</v>
       </c>
       <c r="AE5" t="n">
-        <v>554097.317356247</v>
+        <v>660307.0789070859</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323915350037165e-06</v>
+        <v>2.365078155775523e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.49305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>501215.0470682353</v>
+        <v>597288.2980429986</v>
       </c>
     </row>
     <row r="6">
@@ -52516,28 +52516,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>395.352189952249</v>
+        <v>472.9770525334475</v>
       </c>
       <c r="AB6" t="n">
-        <v>540.9383080003149</v>
+        <v>647.1480695511538</v>
       </c>
       <c r="AC6" t="n">
-        <v>489.3119150964476</v>
+        <v>585.385166071211</v>
       </c>
       <c r="AD6" t="n">
-        <v>395352.1899522491</v>
+        <v>472977.0525334475</v>
       </c>
       <c r="AE6" t="n">
-        <v>540938.3080003149</v>
+        <v>647148.0695511538</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.348366616833724e-06</v>
+        <v>2.408758559496167e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>489311.9150964476</v>
+        <v>585385.166071211</v>
       </c>
     </row>
     <row r="7">
@@ -52622,28 +52622,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>389.4730674581657</v>
+        <v>467.0979300393641</v>
       </c>
       <c r="AB7" t="n">
-        <v>532.8942332353309</v>
+        <v>639.1039947861699</v>
       </c>
       <c r="AC7" t="n">
-        <v>482.0355555371039</v>
+        <v>578.1088065118673</v>
       </c>
       <c r="AD7" t="n">
-        <v>389473.0674581657</v>
+        <v>467097.9300393641</v>
       </c>
       <c r="AE7" t="n">
-        <v>532894.2332353309</v>
+        <v>639103.9947861698</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.360340693989241e-06</v>
+        <v>2.430149374486936e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.05034722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>482035.5555371039</v>
+        <v>578108.8065118673</v>
       </c>
     </row>
     <row r="8">
@@ -52728,28 +52728,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>373.9771668755255</v>
+        <v>461.2303633345037</v>
       </c>
       <c r="AB8" t="n">
-        <v>511.6920584272772</v>
+        <v>631.0757311618061</v>
       </c>
       <c r="AC8" t="n">
-        <v>462.8568865352916</v>
+        <v>570.846749100074</v>
       </c>
       <c r="AD8" t="n">
-        <v>373977.1668755255</v>
+        <v>461230.3633345037</v>
       </c>
       <c r="AE8" t="n">
-        <v>511692.0584272773</v>
+        <v>631075.731161806</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.370729966815351e-06</v>
+        <v>2.448709052199514e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.92881944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>462856.8865352916</v>
+        <v>570846.7491000741</v>
       </c>
     </row>
     <row r="9">
@@ -52834,28 +52834,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>369.0969943291362</v>
+        <v>456.3501907881143</v>
       </c>
       <c r="AB9" t="n">
-        <v>505.0147910512896</v>
+        <v>624.3984637858184</v>
       </c>
       <c r="AC9" t="n">
-        <v>456.8168881860647</v>
+        <v>564.8067507508471</v>
       </c>
       <c r="AD9" t="n">
-        <v>369096.9943291362</v>
+        <v>456350.1907881143</v>
       </c>
       <c r="AE9" t="n">
-        <v>505014.7910512896</v>
+        <v>624398.4637858184</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.377698074739885e-06</v>
+        <v>2.461157068486159e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.85069444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>456816.8881860647</v>
+        <v>564806.750750847</v>
       </c>
     </row>
     <row r="10">
@@ -52940,28 +52940,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>364.3082349812961</v>
+        <v>442.0183489085152</v>
       </c>
       <c r="AB10" t="n">
-        <v>498.4625992464227</v>
+        <v>604.7890054499109</v>
       </c>
       <c r="AC10" t="n">
-        <v>450.8900283709953</v>
+        <v>547.0687915964709</v>
       </c>
       <c r="AD10" t="n">
-        <v>364308.2349812961</v>
+        <v>442018.3489085152</v>
       </c>
       <c r="AE10" t="n">
-        <v>498462.5992464226</v>
+        <v>604789.0054499109</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.384917738907181e-06</v>
+        <v>2.474054471642357e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.76388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>450890.0283709953</v>
+        <v>547068.7915964709</v>
       </c>
     </row>
     <row r="11">
@@ -53046,28 +53046,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>359.4880956849883</v>
+        <v>437.1982096122073</v>
       </c>
       <c r="AB11" t="n">
-        <v>491.8674720116765</v>
+        <v>598.1938782151647</v>
       </c>
       <c r="AC11" t="n">
-        <v>444.924330823214</v>
+        <v>541.1030940486896</v>
       </c>
       <c r="AD11" t="n">
-        <v>359488.0956849882</v>
+        <v>437198.2096122073</v>
       </c>
       <c r="AE11" t="n">
-        <v>491867.4720116765</v>
+        <v>598193.8782151646</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.387609390704745e-06</v>
+        <v>2.478862911146584e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.73784722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>444924.330823214</v>
+        <v>541103.0940486896</v>
       </c>
     </row>
     <row r="12">
@@ -53152,28 +53152,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>357.1963112178565</v>
+        <v>434.9064251450756</v>
       </c>
       <c r="AB12" t="n">
-        <v>488.731751397352</v>
+        <v>595.0581576008401</v>
       </c>
       <c r="AC12" t="n">
-        <v>442.0878789833092</v>
+        <v>538.2666422087847</v>
       </c>
       <c r="AD12" t="n">
-        <v>357196.3112178565</v>
+        <v>434906.4251450755</v>
       </c>
       <c r="AE12" t="n">
-        <v>488731.751397352</v>
+        <v>595058.1576008401</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.390653221242177e-06</v>
+        <v>2.484300492268187e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.703125</v>
       </c>
       <c r="AH12" t="n">
-        <v>442087.8789833091</v>
+        <v>538266.6422087847</v>
       </c>
     </row>
     <row r="13">
@@ -53258,28 +53258,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>357.8142069402315</v>
+        <v>435.5243208674506</v>
       </c>
       <c r="AB13" t="n">
-        <v>489.5771835843408</v>
+        <v>595.903589787829</v>
       </c>
       <c r="AC13" t="n">
-        <v>442.8526243089433</v>
+        <v>539.0313875344189</v>
       </c>
       <c r="AD13" t="n">
-        <v>357814.2069402316</v>
+        <v>435524.3208674506</v>
       </c>
       <c r="AE13" t="n">
-        <v>489577.1835843408</v>
+        <v>595903.589787829</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.391483356843295e-06</v>
+        <v>2.485783468937716e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>442852.6243089433</v>
+        <v>539031.3875344188</v>
       </c>
     </row>
   </sheetData>
